--- a/@doc/界面框架简述.xlsx
+++ b/@doc/界面框架简述.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="8445" tabRatio="844" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="8445" tabRatio="844" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="配方" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,13 @@
     <sheet name="牧场指标" sheetId="23" r:id="rId23"/>
     <sheet name="牧场参数" sheetId="25" r:id="rId24"/>
     <sheet name="诊断" sheetId="26" r:id="rId25"/>
+    <sheet name="牛档案卡" sheetId="27" r:id="rId26"/>
+    <sheet name="牛群" sheetId="28" r:id="rId27"/>
+    <sheet name="平台-牧场管理" sheetId="29" r:id="rId28"/>
+    <sheet name="平台-饲料管理" sheetId="30" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
@@ -297,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="419">
   <si>
     <t>说明:</t>
   </si>
@@ -309,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,7 +323,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -825,7 +829,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,7 +853,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -873,7 +877,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -897,7 +901,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1680,16 +1684,167 @@
   <si>
     <t>方案2</t>
   </si>
+  <si>
+    <t>新增饲料：</t>
+  </si>
+  <si>
+    <t>配方适配界面：（把所有本牧场配方的饲料都对应上。）（只读）</t>
+  </si>
+  <si>
+    <t>或者只显示未配上的标准饲料</t>
+  </si>
+  <si>
+    <t>SQL：</t>
+  </si>
+  <si>
+    <t>use [1mutong]
+select dbo.Feed_Fodder.ID,dbo.Feed_Fodder.Name as SysFodderName,cc.FodderID as PastureFodderID,cc.FodderName as PastureFodderName
+from dbo.Feed_Fodder left join (select * from dbo.Feed_PastureFodder where IsCurrent=1)as cc
+on dbo.Feed_Fodder.ID=cc.SysFodderID
+where dbo.Feed_Fodder.ID IN (
+select DISTINCT dbo.Feed_FodderFormula.FodderID
+from dbo.Feed_FodderFormula 
+where dbo.Feed_FodderFormula.FormulaID IN
+(select DISTINCT dbo.Base_CowGroup.FormulaID 
+from dbo.Base_CowGroup 
+where dbo.Base_CowGroup.PastureID=6)
+)</t>
+  </si>
+  <si>
+    <t>use [1mutong]
+select dbo.Feed_Fodder.ID,dbo.Feed_Fodder.Name as SysFodderName,cc.FodderID as PastureFodderID,cc.FodderName as PastureFodderName
+from dbo.Feed_Fodder left join (select * from dbo.Feed_PastureFodder where IsCurrent=1)as cc
+on dbo.Feed_Fodder.ID=cc.SysFodderID
+where cc.FodderID is null and Feed_Fodder.ID IN (
+select DISTINCT dbo.Feed_FodderFormula.FodderID
+from dbo.Feed_FodderFormula 
+where dbo.Feed_FodderFormula.FormulaID IN
+(select DISTINCT dbo.Base_CowGroup.FormulaID 
+from dbo.Base_CowGroup 
+where dbo.Base_CowGroup.PastureID=6)
+)</t>
+  </si>
+  <si>
+    <t>针对以上情况，所以用户可以新增饲料</t>
+  </si>
+  <si>
+    <t>牛耳号</t>
+  </si>
+  <si>
+    <t>牛耳号（显示耳号）</t>
+  </si>
+  <si>
+    <t>入口参数可以是耳号，或者牧场ID+显示耳号；这样直接显示牛，或者在本界面输入牛显示耳号。</t>
+  </si>
+  <si>
+    <t>*******▼</t>
+  </si>
+  <si>
+    <t>牛基本信息</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>月龄</t>
+  </si>
+  <si>
+    <t>母亲号：</t>
+  </si>
+  <si>
+    <t>父亲号：（可空）</t>
+  </si>
+  <si>
+    <t>如系青年牛/经产牛：</t>
+  </si>
+  <si>
+    <t>繁殖状态：</t>
+  </si>
+  <si>
+    <t>初检-</t>
+  </si>
+  <si>
+    <t>2011.3.1</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>如系经产牛</t>
+  </si>
+  <si>
+    <t>胎次：</t>
+  </si>
+  <si>
+    <t>最近日产量？？</t>
+  </si>
+  <si>
+    <t>体况：</t>
+  </si>
+  <si>
+    <t>出生体重等</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>泌乳状况</t>
+  </si>
+  <si>
+    <t>泌乳/干奶</t>
+  </si>
+  <si>
+    <t>入口参数List&lt;CowInfo&gt;</t>
+  </si>
+  <si>
+    <t>牛类型</t>
+  </si>
+  <si>
+    <t>犊牛,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>配次</t>
+  </si>
+  <si>
+    <t>最后配种时间</t>
+  </si>
+  <si>
+    <t>最后产犊时间</t>
+  </si>
+  <si>
+    <t>干奶？</t>
+  </si>
+  <si>
+    <t>牛群类型</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>产奶状况：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1697,7 +1852,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1705,7 +1860,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1713,7 +1868,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1738,7 +1893,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1746,7 +1901,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1772,7 +1927,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1835,7 +1990,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1844,7 +1999,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1852,7 +2007,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1861,7 +2016,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1869,7 +2024,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2022,7 +2177,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2789,7 +2944,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="20" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -3083,19 +3238,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -3105,13 +3264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3126,7 +3279,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3531,7 +3690,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3615,6 +3774,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3632,7 +3792,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3716,6 +3876,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3733,7 +3894,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3806,6 +3967,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3823,7 +3985,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3901,6 +4063,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3918,7 +4081,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3996,6 +4159,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4013,7 +4177,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4086,6 +4250,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4103,7 +4268,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4181,6 +4346,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4198,7 +4364,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4276,6 +4442,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4293,7 +4460,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4371,6 +4538,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4388,7 +4556,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4490,7 +4658,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4581,7 +4749,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4677,7 +4845,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4776,13 +4944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333017</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>94999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4802,6 +4970,82 @@
         <a:xfrm>
           <a:off x="514350" y="942975"/>
           <a:ext cx="2866667" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390005</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="857250"/>
+          <a:ext cx="4161905" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37562</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3429000"/>
+          <a:ext cx="4304762" cy="790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5563,9 +5807,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5674,6 +5918,24 @@
     <tableColumn id="6" name="CanBeConfiguredByPasture" dataDxfId="2"/>
     <tableColumn id="7" name="CanBeConfiguredByAdmin" dataDxfId="1"/>
     <tableColumn id="3" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="B4:J15" totalsRowShown="0">
+  <autoFilter ref="B4:J15"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="牛耳号"/>
+    <tableColumn id="2" name="牛群"/>
+    <tableColumn id="3" name="牛舍"/>
+    <tableColumn id="4" name="牛类型"/>
+    <tableColumn id="5" name="牛群类型"/>
+    <tableColumn id="6" name="月龄"/>
+    <tableColumn id="7" name="…"/>
+    <tableColumn id="8" name="列1"/>
+    <tableColumn id="9" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6098,18 +6360,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6128,7 +6390,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6165,7 +6427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -6173,7 +6435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6181,7 +6443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -6189,7 +6451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6197,7 +6459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6205,7 +6467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -6213,7 +6475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -6221,7 +6483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -6229,12 +6491,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6245,7 +6507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
@@ -6253,7 +6515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -6279,7 +6541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" thickTop="1">
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
@@ -6311,9 +6573,9 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -6326,7 +6588,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6337,7 +6599,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6348,7 +6610,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6359,12 +6621,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -6393,7 +6655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10">
       <c r="B14">
         <v>123</v>
       </c>
@@ -6439,9 +6701,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -6460,17 +6722,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>164</v>
       </c>
@@ -6489,26 +6751,26 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>158</v>
       </c>
@@ -6525,7 +6787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>4.2</v>
       </c>
@@ -6542,12 +6804,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>158</v>
       </c>
@@ -6564,7 +6826,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>4.2</v>
       </c>
@@ -6600,15 +6862,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6628,7 +6890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
         <v>120</v>
       </c>
@@ -6639,7 +6901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
@@ -6650,7 +6912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="C6" s="5" t="s">
         <v>114</v>
       </c>
@@ -6658,7 +6920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="C7" s="5" t="s">
         <v>115</v>
       </c>
@@ -6666,7 +6928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
@@ -6674,7 +6936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
@@ -6700,12 +6962,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="17" width="12.625" customWidth="1"/>
+    <col min="2" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -6713,7 +6975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6722,8 +6984,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1">
       <c r="B5" s="32" t="s">
         <v>121</v>
       </c>
@@ -6773,7 +7035,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="B6" s="28">
         <v>41795</v>
       </c>
@@ -6799,7 +7061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
       <c r="B7" s="28">
         <v>41795</v>
       </c>
@@ -6825,13 +7087,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="B10" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="12" spans="2:17" ht="29.25" thickBot="1">
       <c r="B12" s="34" t="s">
         <v>72</v>
       </c>
@@ -6848,7 +7110,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="15.75" thickBot="1">
       <c r="B13" s="28">
         <v>41795</v>
       </c>
@@ -6865,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -6886,12 +7148,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
         <v>146</v>
       </c>
@@ -6916,14 +7178,14 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>151</v>
       </c>
@@ -6931,7 +7193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>150</v>
       </c>
@@ -6951,14 +7213,14 @@
       <selection activeCell="D186" sqref="D186:I186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12">
       <c r="B2" s="40" t="s">
         <v>166</v>
       </c>
@@ -6981,7 +7243,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12">
       <c r="B3" s="43" t="s">
         <v>170</v>
       </c>
@@ -6996,7 +7258,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12">
       <c r="B4" s="43" t="s">
         <v>185</v>
       </c>
@@ -7008,7 +7270,7 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -7018,7 +7280,7 @@
       <c r="H5" s="44"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12">
       <c r="B6" s="43" t="s">
         <v>177</v>
       </c>
@@ -7032,7 +7294,7 @@
       <c r="H6" s="44"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -7042,7 +7304,7 @@
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="43" t="s">
         <v>179</v>
       </c>
@@ -7054,7 +7316,7 @@
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="43" t="s">
         <v>180</v>
       </c>
@@ -7066,7 +7328,7 @@
       <c r="H9" s="44"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="28.5">
       <c r="B10" s="43" t="s">
         <v>171</v>
       </c>
@@ -7090,7 +7352,7 @@
       </c>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="B11" s="48" t="s">
         <v>181</v>
       </c>
@@ -7102,7 +7364,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="B12" s="49" t="s">
         <v>182</v>
       </c>
@@ -7114,7 +7376,7 @@
       <c r="H12" s="44"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="B13" s="49" t="s">
         <v>183</v>
       </c>
@@ -7126,7 +7388,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="B14" s="43" t="s">
         <v>193</v>
       </c>
@@ -7138,7 +7400,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12">
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
@@ -7154,7 +7416,7 @@
       </c>
       <c r="I15" s="53"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="40" t="s">
         <v>166</v>
       </c>
@@ -7177,7 +7439,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="43" t="s">
         <v>180</v>
       </c>
@@ -7192,7 +7454,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="43" t="s">
         <v>170</v>
       </c>
@@ -7204,7 +7466,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -7214,7 +7476,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="43" t="s">
         <v>177</v>
       </c>
@@ -7228,7 +7490,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="28.5">
       <c r="B24" s="43" t="s">
         <v>171</v>
       </c>
@@ -7242,7 +7504,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="45"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="43" t="s">
         <v>179</v>
       </c>
@@ -7254,7 +7516,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="43" t="s">
         <v>169</v>
       </c>
@@ -7268,7 +7530,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="54" t="s">
         <v>194</v>
       </c>
@@ -7282,7 +7544,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="45"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="48"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
@@ -7292,7 +7554,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="49"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -7302,7 +7564,7 @@
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="49"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -7312,7 +7574,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="45"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -7322,7 +7584,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="45"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="50"/>
       <c r="C32" s="51"/>
       <c r="D32" s="52" t="s">
@@ -7336,7 +7598,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="53"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="40" t="s">
         <v>166</v>
       </c>
@@ -7359,7 +7621,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="43" t="s">
         <v>180</v>
       </c>
@@ -7374,7 +7636,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="43" t="s">
         <v>170</v>
       </c>
@@ -7386,7 +7648,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="45"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="43"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -7396,7 +7658,7 @@
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="43" t="s">
         <v>177</v>
       </c>
@@ -7410,7 +7672,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" ht="28.5">
       <c r="B40" s="43" t="s">
         <v>171</v>
       </c>
@@ -7424,7 +7686,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="45"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="43" t="s">
         <v>179</v>
       </c>
@@ -7436,7 +7698,7 @@
       <c r="H41" s="44"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="43" t="s">
         <v>169</v>
       </c>
@@ -7450,7 +7712,7 @@
       <c r="H42" s="44"/>
       <c r="I42" s="45"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="54" t="s">
         <v>194</v>
       </c>
@@ -7464,7 +7726,7 @@
       <c r="H43" s="47"/>
       <c r="I43" s="45"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="48"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
@@ -7474,7 +7736,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="45"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="49"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -7484,7 +7746,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="45"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="49"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -7494,7 +7756,7 @@
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -7504,7 +7766,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12">
       <c r="B48" s="50"/>
       <c r="C48" s="51"/>
       <c r="D48" s="52" t="s">
@@ -7518,7 +7780,7 @@
       <c r="H48" s="51"/>
       <c r="I48" s="53"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="40" t="s">
         <v>166</v>
       </c>
@@ -7539,7 +7801,7 @@
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="43" t="s">
         <v>180</v>
       </c>
@@ -7554,7 +7816,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12">
       <c r="B54" s="43" t="s">
         <v>170</v>
       </c>
@@ -7566,7 +7828,7 @@
       <c r="H54" s="44"/>
       <c r="I54" s="45"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -7576,21 +7838,21 @@
       <c r="H55" s="44"/>
       <c r="I55" s="45"/>
     </row>
-    <row r="56" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" ht="37.5" customHeight="1">
       <c r="B56" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C56" s="44"/>
-      <c r="D56" s="143" t="s">
+      <c r="D56" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
       <c r="H56" s="44"/>
       <c r="I56" s="45"/>
     </row>
-    <row r="57" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" ht="28.5">
       <c r="B57" s="43" t="s">
         <v>171</v>
       </c>
@@ -7604,7 +7866,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="45"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="43" t="s">
         <v>179</v>
       </c>
@@ -7616,7 +7878,7 @@
       <c r="H58" s="44"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="43" t="s">
         <v>169</v>
       </c>
@@ -7630,7 +7892,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="54"/>
       <c r="C60" s="44"/>
       <c r="D60" s="47"/>
@@ -7640,7 +7902,7 @@
       <c r="H60" s="47"/>
       <c r="I60" s="45"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12">
       <c r="B61" s="48"/>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
@@ -7650,7 +7912,7 @@
       <c r="H61" s="44"/>
       <c r="I61" s="45"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12">
       <c r="B62" s="49"/>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -7660,7 +7922,7 @@
       <c r="H62" s="44"/>
       <c r="I62" s="45"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12">
       <c r="B63" s="49"/>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -7670,7 +7932,7 @@
       <c r="H63" s="44"/>
       <c r="I63" s="45"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12">
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -7680,7 +7942,7 @@
       <c r="H64" s="44"/>
       <c r="I64" s="45"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12">
       <c r="B65" s="50"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52" t="s">
@@ -7694,7 +7956,7 @@
       <c r="H65" s="51"/>
       <c r="I65" s="53"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12">
       <c r="B68" s="40" t="s">
         <v>166</v>
       </c>
@@ -7717,7 +7979,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12">
       <c r="B69" s="43" t="s">
         <v>180</v>
       </c>
@@ -7732,7 +7994,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12">
       <c r="B70" s="43" t="s">
         <v>170</v>
       </c>
@@ -7747,7 +8009,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12">
       <c r="B71" s="43"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
@@ -7757,21 +8019,21 @@
       <c r="H71" s="44"/>
       <c r="I71" s="45"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12">
       <c r="B72" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C72" s="44"/>
-      <c r="D72" s="143" t="s">
+      <c r="D72" s="145" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="144"/>
-      <c r="F72" s="144"/>
-      <c r="G72" s="144"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="146"/>
       <c r="H72" s="44"/>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" ht="28.5">
       <c r="B73" s="43" t="s">
         <v>171</v>
       </c>
@@ -7785,7 +8047,7 @@
       <c r="H73" s="44"/>
       <c r="I73" s="45"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12">
       <c r="B74" s="43" t="s">
         <v>179</v>
       </c>
@@ -7797,7 +8059,7 @@
       <c r="H74" s="44"/>
       <c r="I74" s="45"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12">
       <c r="B75" s="43" t="s">
         <v>169</v>
       </c>
@@ -7811,7 +8073,7 @@
       <c r="H75" s="44"/>
       <c r="I75" s="45"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12">
       <c r="B76" s="54" t="s">
         <v>206</v>
       </c>
@@ -7823,7 +8085,7 @@
       <c r="H76" s="47"/>
       <c r="I76" s="45"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12">
       <c r="B77" s="48" t="s">
         <v>207</v>
       </c>
@@ -7835,7 +8097,7 @@
       <c r="H77" s="44"/>
       <c r="I77" s="45"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12">
       <c r="B78" s="49"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -7845,7 +8107,7 @@
       <c r="H78" s="44"/>
       <c r="I78" s="45"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12">
       <c r="B79" s="49"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -7855,7 +8117,7 @@
       <c r="H79" s="44"/>
       <c r="I79" s="45"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12">
       <c r="B80" s="43"/>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
@@ -7865,7 +8127,7 @@
       <c r="H80" s="44"/>
       <c r="I80" s="45"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:15">
       <c r="B81" s="50"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52" t="s">
@@ -7879,7 +8141,7 @@
       <c r="H81" s="51"/>
       <c r="I81" s="53"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:15">
       <c r="B84" s="40" t="s">
         <v>166</v>
       </c>
@@ -7905,7 +8167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:15">
       <c r="B85" s="43" t="s">
         <v>180</v>
       </c>
@@ -7923,7 +8185,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:15">
       <c r="B86" s="43" t="s">
         <v>170</v>
       </c>
@@ -7941,7 +8203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:15">
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -7957,24 +8219,24 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:15" ht="50.25" customHeight="1">
       <c r="B88" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C88" s="44"/>
-      <c r="D88" s="143" t="s">
+      <c r="D88" s="145" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="G88" s="143"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="145"/>
       <c r="H88" s="44"/>
       <c r="I88" s="44"/>
       <c r="J88" s="44"/>
       <c r="K88" s="44"/>
       <c r="L88" s="45"/>
     </row>
-    <row r="89" spans="2:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:15" ht="28.5">
       <c r="B89" s="43" t="s">
         <v>171</v>
       </c>
@@ -7991,7 +8253,7 @@
       <c r="K89" s="44"/>
       <c r="L89" s="45"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:15">
       <c r="B90" s="43" t="s">
         <v>179</v>
       </c>
@@ -8006,7 +8268,7 @@
       <c r="K90" s="44"/>
       <c r="L90" s="45"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:15">
       <c r="B91" s="43" t="s">
         <v>169</v>
       </c>
@@ -8023,7 +8285,7 @@
       <c r="K91" s="44"/>
       <c r="L91" s="45"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:15">
       <c r="B92" s="61" t="s">
         <v>226</v>
       </c>
@@ -8038,7 +8300,7 @@
       <c r="K92" s="44"/>
       <c r="L92" s="45"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:15">
       <c r="B93" s="59" t="s">
         <v>210</v>
       </c>
@@ -8067,56 +8329,56 @@
       <c r="K93" s="44"/>
       <c r="L93" s="45"/>
     </row>
-    <row r="94" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="154"/>
-      <c r="C94" s="150"/>
-      <c r="D94" s="150"/>
+    <row r="94" spans="2:15" ht="36" customHeight="1">
+      <c r="B94" s="147"/>
+      <c r="C94" s="148"/>
+      <c r="D94" s="148"/>
       <c r="E94" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="F94" s="150" t="s">
+      <c r="F94" s="148" t="s">
         <v>219</v>
       </c>
-      <c r="G94" s="150" t="s">
+      <c r="G94" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="H94" s="150" t="s">
+      <c r="H94" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="I94" s="150"/>
+      <c r="I94" s="148"/>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
       <c r="L94" s="45"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B95" s="154"/>
-      <c r="C95" s="150"/>
-      <c r="D95" s="150"/>
+    <row r="95" spans="2:15">
+      <c r="B95" s="147"/>
+      <c r="C95" s="148"/>
+      <c r="D95" s="148"/>
       <c r="E95" s="55"/>
-      <c r="F95" s="150"/>
-      <c r="G95" s="150"/>
-      <c r="H95" s="151"/>
-      <c r="I95" s="150"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="148"/>
+      <c r="H95" s="149"/>
+      <c r="I95" s="148"/>
       <c r="J95" s="44"/>
       <c r="K95" s="44"/>
       <c r="L95" s="45"/>
     </row>
-    <row r="96" spans="2:15" ht="72" x14ac:dyDescent="0.15">
-      <c r="B96" s="154"/>
-      <c r="C96" s="150"/>
-      <c r="D96" s="150"/>
+    <row r="96" spans="2:15" ht="84">
+      <c r="B96" s="147"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="148"/>
       <c r="E96" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="F96" s="150"/>
-      <c r="G96" s="150"/>
-      <c r="H96" s="151"/>
-      <c r="I96" s="150"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="149"/>
+      <c r="I96" s="148"/>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
       <c r="L96" s="45"/>
     </row>
-    <row r="97" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" ht="108">
       <c r="B97" s="58"/>
       <c r="C97" s="55"/>
       <c r="D97" s="55"/>
@@ -8133,7 +8395,7 @@
       <c r="K97" s="44"/>
       <c r="L97" s="45"/>
     </row>
-    <row r="98" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" ht="15.75" thickBot="1">
       <c r="B98" s="58" t="s">
         <v>227</v>
       </c>
@@ -8148,7 +8410,7 @@
       <c r="K98" s="44"/>
       <c r="L98" s="45"/>
     </row>
-    <row r="99" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" ht="15.75" thickBot="1">
       <c r="B99" s="63" t="s">
         <v>93</v>
       </c>
@@ -8185,8 +8447,8 @@
       <c r="M99" s="44"/>
       <c r="N99" s="44"/>
     </row>
-    <row r="100" spans="2:14" ht="24" x14ac:dyDescent="0.15">
-      <c r="B100" s="152"/>
+    <row r="100" spans="2:14" ht="24">
+      <c r="B100" s="150"/>
       <c r="C100" s="139" t="s">
         <v>228</v>
       </c>
@@ -8194,7 +8456,7 @@
         <v>103</v>
       </c>
       <c r="E100" s="37"/>
-      <c r="F100" s="137"/>
+      <c r="F100" s="142"/>
       <c r="G100" s="24" t="s">
         <v>104</v>
       </c>
@@ -8204,30 +8466,30 @@
       <c r="I100" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="J100" s="137"/>
-      <c r="K100" s="137"/>
-      <c r="L100" s="148"/>
+      <c r="J100" s="142"/>
+      <c r="K100" s="142"/>
+      <c r="L100" s="155"/>
       <c r="M100" s="44"/>
       <c r="N100" s="44"/>
     </row>
-    <row r="101" spans="2:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="153"/>
-      <c r="C101" s="140"/>
-      <c r="D101" s="140"/>
+    <row r="101" spans="2:14" ht="72.75" thickBot="1">
+      <c r="B101" s="151"/>
+      <c r="C101" s="141"/>
+      <c r="D101" s="141"/>
       <c r="E101" s="38"/>
-      <c r="F101" s="138"/>
+      <c r="F101" s="143"/>
       <c r="G101" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H101" s="140"/>
-      <c r="I101" s="140"/>
-      <c r="J101" s="138"/>
-      <c r="K101" s="138"/>
-      <c r="L101" s="149"/>
+      <c r="H101" s="141"/>
+      <c r="I101" s="141"/>
+      <c r="J101" s="143"/>
+      <c r="K101" s="143"/>
+      <c r="L101" s="156"/>
       <c r="M101" s="44"/>
       <c r="N101" s="44"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14">
       <c r="B102" s="58"/>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
@@ -8240,7 +8502,7 @@
       <c r="K102" s="44"/>
       <c r="L102" s="45"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14">
       <c r="B103" s="54"/>
       <c r="C103" s="44"/>
       <c r="D103" s="47"/>
@@ -8253,7 +8515,7 @@
       <c r="K103" s="44"/>
       <c r="L103" s="45"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14">
       <c r="B104" s="65" t="s">
         <v>230</v>
       </c>
@@ -8276,7 +8538,7 @@
       <c r="K104" s="44"/>
       <c r="L104" s="45"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14">
       <c r="B105" s="49"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -8289,7 +8551,7 @@
       <c r="K105" s="44"/>
       <c r="L105" s="45"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14">
       <c r="B106" s="49"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -8302,7 +8564,7 @@
       <c r="K106" s="44"/>
       <c r="L106" s="45"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14">
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -8315,7 +8577,7 @@
       <c r="K107" s="44"/>
       <c r="L107" s="45"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14">
       <c r="B108" s="50"/>
       <c r="C108" s="51"/>
       <c r="D108" s="52" t="s">
@@ -8332,7 +8594,7 @@
       <c r="K108" s="51"/>
       <c r="L108" s="53"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:12">
       <c r="B113" s="40" t="s">
         <v>166</v>
       </c>
@@ -8355,7 +8617,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:12">
       <c r="B114" s="43" t="s">
         <v>180</v>
       </c>
@@ -8370,7 +8632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:12">
       <c r="B115" s="43" t="s">
         <v>170</v>
       </c>
@@ -8385,7 +8647,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:12">
       <c r="B116" s="43"/>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
@@ -8395,21 +8657,21 @@
       <c r="H116" s="44"/>
       <c r="I116" s="45"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:12">
       <c r="B117" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C117" s="44"/>
-      <c r="D117" s="143" t="s">
+      <c r="D117" s="145" t="s">
         <v>234</v>
       </c>
-      <c r="E117" s="144"/>
-      <c r="F117" s="144"/>
-      <c r="G117" s="144"/>
+      <c r="E117" s="146"/>
+      <c r="F117" s="146"/>
+      <c r="G117" s="146"/>
       <c r="H117" s="44"/>
       <c r="I117" s="45"/>
     </row>
-    <row r="118" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:12" ht="28.5">
       <c r="B118" s="43" t="s">
         <v>171</v>
       </c>
@@ -8423,7 +8685,7 @@
       <c r="H118" s="44"/>
       <c r="I118" s="45"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:12">
       <c r="B119" s="43" t="s">
         <v>179</v>
       </c>
@@ -8435,7 +8697,7 @@
       <c r="H119" s="44"/>
       <c r="I119" s="45"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:12">
       <c r="B120" s="43" t="s">
         <v>169</v>
       </c>
@@ -8449,7 +8711,7 @@
       <c r="H120" s="44"/>
       <c r="I120" s="45"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:12">
       <c r="B121" s="54"/>
       <c r="C121" s="44"/>
       <c r="D121" s="47"/>
@@ -8459,7 +8721,7 @@
       <c r="H121" s="47"/>
       <c r="I121" s="45"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:12">
       <c r="B122" s="48"/>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
@@ -8469,7 +8731,7 @@
       <c r="H122" s="44"/>
       <c r="I122" s="45"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:12">
       <c r="B123" s="49"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -8479,7 +8741,7 @@
       <c r="H123" s="44"/>
       <c r="I123" s="45"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:12">
       <c r="B124" s="65" t="s">
         <v>233</v>
       </c>
@@ -8499,7 +8761,7 @@
       <c r="H124" s="44"/>
       <c r="I124" s="45"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:12">
       <c r="B125" s="43"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -8509,7 +8771,7 @@
       <c r="H125" s="44"/>
       <c r="I125" s="45"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:12">
       <c r="B126" s="50"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52" t="s">
@@ -8523,7 +8785,7 @@
       <c r="H126" s="51"/>
       <c r="I126" s="53"/>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:12">
       <c r="B130" s="40" t="s">
         <v>166</v>
       </c>
@@ -8544,7 +8806,7 @@
       <c r="K130" s="39"/>
       <c r="L130" s="39"/>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:12">
       <c r="B131" s="43" t="s">
         <v>180</v>
       </c>
@@ -8559,7 +8821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:12">
       <c r="B132" s="43" t="s">
         <v>170</v>
       </c>
@@ -8572,7 +8834,7 @@
       <c r="I132" s="45"/>
       <c r="L132" s="39"/>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:12">
       <c r="B133" s="43"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
@@ -8582,21 +8844,21 @@
       <c r="H133" s="44"/>
       <c r="I133" s="45"/>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:12">
       <c r="B134" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C134" s="44"/>
-      <c r="D134" s="143" t="s">
+      <c r="D134" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="E134" s="144"/>
-      <c r="F134" s="144"/>
-      <c r="G134" s="144"/>
-      <c r="H134" s="145"/>
-      <c r="I134" s="146"/>
-    </row>
-    <row r="135" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="E134" s="146"/>
+      <c r="F134" s="146"/>
+      <c r="G134" s="146"/>
+      <c r="H134" s="152"/>
+      <c r="I134" s="153"/>
+    </row>
+    <row r="135" spans="2:12" ht="28.5">
       <c r="B135" s="43" t="s">
         <v>171</v>
       </c>
@@ -8610,7 +8872,7 @@
       <c r="H135" s="44"/>
       <c r="I135" s="45"/>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:12">
       <c r="B136" s="43" t="s">
         <v>179</v>
       </c>
@@ -8622,7 +8884,7 @@
       <c r="H136" s="44"/>
       <c r="I136" s="45"/>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:12">
       <c r="B137" s="43" t="s">
         <v>169</v>
       </c>
@@ -8636,7 +8898,7 @@
       <c r="H137" s="44"/>
       <c r="I137" s="45"/>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:12">
       <c r="B138" s="54"/>
       <c r="C138" s="44"/>
       <c r="D138" s="47"/>
@@ -8646,7 +8908,7 @@
       <c r="H138" s="47"/>
       <c r="I138" s="45"/>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:12">
       <c r="B139" s="48"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
@@ -8656,7 +8918,7 @@
       <c r="H139" s="44"/>
       <c r="I139" s="45"/>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:12">
       <c r="B140" s="49"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
@@ -8666,7 +8928,7 @@
       <c r="H140" s="44"/>
       <c r="I140" s="45"/>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:12">
       <c r="B141" s="65"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
@@ -8676,7 +8938,7 @@
       <c r="H141" s="44"/>
       <c r="I141" s="45"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:12">
       <c r="B142" s="43"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
@@ -8686,7 +8948,7 @@
       <c r="H142" s="44"/>
       <c r="I142" s="45"/>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:12">
       <c r="B143" s="50"/>
       <c r="C143" s="51"/>
       <c r="D143" s="52" t="s">
@@ -8700,7 +8962,7 @@
       <c r="H143" s="51"/>
       <c r="I143" s="53"/>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:12">
       <c r="B146" s="40" t="s">
         <v>166</v>
       </c>
@@ -8723,7 +8985,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:12">
       <c r="B147" s="43" t="s">
         <v>180</v>
       </c>
@@ -8738,7 +9000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:12">
       <c r="B148" s="43" t="s">
         <v>170</v>
       </c>
@@ -8751,7 +9013,7 @@
       <c r="I148" s="45"/>
       <c r="L148" s="39"/>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:12">
       <c r="B149" s="43"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -8761,21 +9023,21 @@
       <c r="H149" s="44"/>
       <c r="I149" s="45"/>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:12">
       <c r="B150" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C150" s="44"/>
-      <c r="D150" s="143" t="s">
+      <c r="D150" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="E150" s="144"/>
-      <c r="F150" s="144"/>
-      <c r="G150" s="144"/>
-      <c r="H150" s="145"/>
-      <c r="I150" s="146"/>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E150" s="146"/>
+      <c r="F150" s="146"/>
+      <c r="G150" s="146"/>
+      <c r="H150" s="152"/>
+      <c r="I150" s="153"/>
+    </row>
+    <row r="151" spans="2:12">
       <c r="B151" s="43" t="s">
         <v>245</v>
       </c>
@@ -8787,7 +9049,7 @@
       <c r="H151" s="44"/>
       <c r="I151" s="45"/>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:12">
       <c r="B152" s="43" t="s">
         <v>179</v>
       </c>
@@ -8801,7 +9063,7 @@
       <c r="H152" s="44"/>
       <c r="I152" s="45"/>
     </row>
-    <row r="153" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:12" ht="15.75" thickBot="1">
       <c r="B153" s="43" t="s">
         <v>169</v>
       </c>
@@ -8815,7 +9077,7 @@
       <c r="H153" s="44"/>
       <c r="I153" s="45"/>
     </row>
-    <row r="154" spans="2:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:12" ht="36.75" thickBot="1">
       <c r="B154" s="67" t="s">
         <v>239</v>
       </c>
@@ -8833,7 +9095,7 @@
       <c r="H154" s="47"/>
       <c r="I154" s="45"/>
     </row>
-    <row r="155" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:12" ht="15.75" thickBot="1">
       <c r="B155" s="69"/>
       <c r="C155" s="72" t="s">
         <v>241</v>
@@ -8847,7 +9109,7 @@
       <c r="H155" s="44"/>
       <c r="I155" s="45"/>
     </row>
-    <row r="156" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:12" ht="15.75" thickBot="1">
       <c r="B156" s="69"/>
       <c r="C156" s="72" t="s">
         <v>242</v>
@@ -8859,7 +9121,7 @@
       <c r="H156" s="44"/>
       <c r="I156" s="45"/>
     </row>
-    <row r="157" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:12" ht="15.75" thickBot="1">
       <c r="B157" s="69"/>
       <c r="C157" s="72" t="s">
         <v>243</v>
@@ -8871,7 +9133,7 @@
       <c r="H157" s="44"/>
       <c r="I157" s="45"/>
     </row>
-    <row r="158" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:12" ht="15.75" thickBot="1">
       <c r="B158" s="69"/>
       <c r="C158" s="72" t="s">
         <v>244</v>
@@ -8883,7 +9145,7 @@
       <c r="H158" s="44"/>
       <c r="I158" s="45"/>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:12">
       <c r="B159" s="50"/>
       <c r="C159" s="51"/>
       <c r="D159" s="52" t="s">
@@ -8897,7 +9159,7 @@
       <c r="H159" s="51"/>
       <c r="I159" s="53"/>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:12">
       <c r="B163" s="40" t="s">
         <v>166</v>
       </c>
@@ -8920,7 +9182,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:12">
       <c r="B164" s="43" t="s">
         <v>180</v>
       </c>
@@ -8935,7 +9197,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:12">
       <c r="B165" s="43" t="s">
         <v>170</v>
       </c>
@@ -8948,7 +9210,7 @@
       <c r="I165" s="45"/>
       <c r="L165" s="39"/>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:12">
       <c r="B166" s="43"/>
       <c r="C166" s="44"/>
       <c r="D166" s="44"/>
@@ -8958,21 +9220,21 @@
       <c r="H166" s="44"/>
       <c r="I166" s="45"/>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:12">
       <c r="B167" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C167" s="44"/>
-      <c r="D167" s="143" t="s">
+      <c r="D167" s="145" t="s">
         <v>251</v>
       </c>
-      <c r="E167" s="144"/>
-      <c r="F167" s="144"/>
-      <c r="G167" s="144"/>
-      <c r="H167" s="145"/>
-      <c r="I167" s="146"/>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="E167" s="146"/>
+      <c r="F167" s="146"/>
+      <c r="G167" s="146"/>
+      <c r="H167" s="152"/>
+      <c r="I167" s="153"/>
+    </row>
+    <row r="168" spans="2:12">
       <c r="B168" s="43" t="s">
         <v>245</v>
       </c>
@@ -8984,7 +9246,7 @@
       <c r="H168" s="44"/>
       <c r="I168" s="45"/>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:12">
       <c r="B169" s="43" t="s">
         <v>179</v>
       </c>
@@ -8998,7 +9260,7 @@
       <c r="H169" s="44"/>
       <c r="I169" s="45"/>
     </row>
-    <row r="170" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:12" ht="15.75" thickBot="1">
       <c r="B170" s="43" t="s">
         <v>169</v>
       </c>
@@ -9012,7 +9274,7 @@
       <c r="H170" s="44"/>
       <c r="I170" s="45"/>
     </row>
-    <row r="171" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" ht="15.75" thickBot="1">
       <c r="B171" s="67" t="s">
         <v>239</v>
       </c>
@@ -9030,7 +9292,7 @@
       <c r="H171" s="47"/>
       <c r="I171" s="45"/>
     </row>
-    <row r="172" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:12" ht="15.75" thickBot="1">
       <c r="B172" s="69"/>
       <c r="C172" s="70" t="s">
         <v>241</v>
@@ -9048,7 +9310,7 @@
       </c>
       <c r="I172" s="45"/>
     </row>
-    <row r="173" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:12" ht="15.75" thickBot="1">
       <c r="B173" s="69"/>
       <c r="C173" s="70" t="s">
         <v>242</v>
@@ -9064,7 +9326,7 @@
       <c r="H173" s="44"/>
       <c r="I173" s="45"/>
     </row>
-    <row r="174" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:12" ht="15.75" thickBot="1">
       <c r="B174" s="69"/>
       <c r="C174" s="70" t="s">
         <v>243</v>
@@ -9076,7 +9338,7 @@
       <c r="H174" s="44"/>
       <c r="I174" s="45"/>
     </row>
-    <row r="175" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:12" ht="15.75" thickBot="1">
       <c r="B175" s="69"/>
       <c r="C175" s="72" t="s">
         <v>244</v>
@@ -9088,7 +9350,7 @@
       <c r="H175" s="44"/>
       <c r="I175" s="45"/>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:12">
       <c r="B176" s="50"/>
       <c r="C176" s="51"/>
       <c r="D176" s="52" t="s">
@@ -9102,7 +9364,7 @@
       <c r="H176" s="51"/>
       <c r="I176" s="53"/>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:12">
       <c r="B182" s="40" t="s">
         <v>166</v>
       </c>
@@ -9125,7 +9387,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:12">
       <c r="B183" s="43" t="s">
         <v>180</v>
       </c>
@@ -9140,7 +9402,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:12">
       <c r="B184" s="43" t="s">
         <v>170</v>
       </c>
@@ -9155,7 +9417,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:12">
       <c r="B185" s="43"/>
       <c r="C185" s="44"/>
       <c r="D185" s="44"/>
@@ -9165,21 +9427,21 @@
       <c r="H185" s="44"/>
       <c r="I185" s="45"/>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:12">
       <c r="B186" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C186" s="44"/>
-      <c r="D186" s="143" t="s">
+      <c r="D186" s="145" t="s">
         <v>259</v>
       </c>
-      <c r="E186" s="143"/>
-      <c r="F186" s="143"/>
-      <c r="G186" s="143"/>
-      <c r="H186" s="147"/>
-      <c r="I186" s="146"/>
-    </row>
-    <row r="187" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="E186" s="145"/>
+      <c r="F186" s="145"/>
+      <c r="G186" s="145"/>
+      <c r="H186" s="154"/>
+      <c r="I186" s="153"/>
+    </row>
+    <row r="187" spans="2:12" ht="28.5">
       <c r="B187" s="43" t="s">
         <v>171</v>
       </c>
@@ -9193,7 +9455,7 @@
       <c r="H187" s="44"/>
       <c r="I187" s="45"/>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:12">
       <c r="B188" s="43" t="s">
         <v>179</v>
       </c>
@@ -9205,7 +9467,7 @@
       <c r="H188" s="44"/>
       <c r="I188" s="45"/>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:12">
       <c r="B189" s="43" t="s">
         <v>169</v>
       </c>
@@ -9219,7 +9481,7 @@
       <c r="H189" s="44"/>
       <c r="I189" s="45"/>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:12">
       <c r="B190" s="75" t="s">
         <v>231</v>
       </c>
@@ -9237,7 +9499,7 @@
       <c r="H190" s="47"/>
       <c r="I190" s="45"/>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:12">
       <c r="B191" s="48"/>
       <c r="C191" s="44"/>
       <c r="D191" s="44"/>
@@ -9247,7 +9509,7 @@
       <c r="H191" s="44"/>
       <c r="I191" s="45"/>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:12">
       <c r="B192" s="49"/>
       <c r="C192" s="44"/>
       <c r="D192" s="44"/>
@@ -9257,7 +9519,7 @@
       <c r="H192" s="44"/>
       <c r="I192" s="45"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:9">
       <c r="B193" s="65"/>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
@@ -9267,7 +9529,7 @@
       <c r="H193" s="44"/>
       <c r="I193" s="45"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:9">
       <c r="B194" s="43"/>
       <c r="C194" s="44"/>
       <c r="D194" s="44"/>
@@ -9277,7 +9539,7 @@
       <c r="H194" s="44"/>
       <c r="I194" s="45"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:9">
       <c r="B195" s="50"/>
       <c r="C195" s="51"/>
       <c r="D195" s="52" t="s">
@@ -9293,6 +9555,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D167:I167"/>
+    <mergeCell ref="D186:I186"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D134:I134"/>
+    <mergeCell ref="D150:I150"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D72:G72"/>
     <mergeCell ref="D88:G88"/>
@@ -9301,22 +9579,6 @@
     <mergeCell ref="D94:D96"/>
     <mergeCell ref="F94:F96"/>
     <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="D167:I167"/>
-    <mergeCell ref="D186:I186"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D134:I134"/>
-    <mergeCell ref="D150:I150"/>
-    <mergeCell ref="J100:J101"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9333,19 +9595,19 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:19">
       <c r="B3" s="83" t="s">
         <v>273</v>
       </c>
@@ -9369,7 +9631,7 @@
       <c r="R3" s="84"/>
       <c r="S3" s="85"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="B4" s="86"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -9387,7 +9649,7 @@
       <c r="R4" s="44"/>
       <c r="S4" s="87"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="B5" s="97" t="s">
         <v>274</v>
       </c>
@@ -9411,7 +9673,7 @@
       <c r="R5" s="44"/>
       <c r="S5" s="87"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="B6" s="86"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -9435,7 +9697,7 @@
       </c>
       <c r="S6" s="87"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="B7" s="86"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -9453,7 +9715,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="87"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="B8" s="86"/>
       <c r="C8" s="96"/>
       <c r="D8" s="95" t="s">
@@ -9477,7 +9739,7 @@
       <c r="R8" s="44"/>
       <c r="S8" s="87"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="B9" s="86"/>
       <c r="C9" s="93" t="s">
         <v>280</v>
@@ -9509,7 +9771,7 @@
       </c>
       <c r="S9" s="87"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="B10" s="86"/>
       <c r="C10" s="93" t="s">
         <v>280</v>
@@ -9535,7 +9797,7 @@
       <c r="R10" s="44"/>
       <c r="S10" s="87"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="B11" s="86"/>
       <c r="C11" s="93" t="s">
         <v>280</v>
@@ -9561,7 +9823,7 @@
       <c r="R11" s="44"/>
       <c r="S11" s="87"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="B12" s="86"/>
       <c r="C12" s="93" t="s">
         <v>280</v>
@@ -9591,7 +9853,7 @@
       <c r="R12" s="91"/>
       <c r="S12" s="87"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="B13" s="86"/>
       <c r="C13" s="93"/>
       <c r="D13" s="91"/>
@@ -9609,7 +9871,7 @@
       <c r="R13" s="44"/>
       <c r="S13" s="87"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="B14" s="86"/>
       <c r="C14" s="93"/>
       <c r="D14" s="91"/>
@@ -9627,7 +9889,7 @@
       <c r="R14" s="44"/>
       <c r="S14" s="87"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="B15" s="86"/>
       <c r="C15" s="93"/>
       <c r="D15" s="91"/>
@@ -9649,7 +9911,7 @@
       <c r="R15" s="91"/>
       <c r="S15" s="87"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="B16" s="86"/>
       <c r="C16" s="93"/>
       <c r="D16" s="91"/>
@@ -9667,7 +9929,7 @@
       <c r="R16" s="44"/>
       <c r="S16" s="87"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19">
       <c r="B17" s="86"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
@@ -9685,7 +9947,7 @@
       <c r="R17" s="44"/>
       <c r="S17" s="87"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19">
       <c r="B18" s="86"/>
       <c r="C18" s="93"/>
       <c r="D18" s="91"/>
@@ -9705,7 +9967,7 @@
       <c r="R18" s="44"/>
       <c r="S18" s="87"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19">
       <c r="B19" s="86"/>
       <c r="C19" s="93"/>
       <c r="D19" s="91"/>
@@ -9727,7 +9989,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:19">
       <c r="B20" s="86"/>
       <c r="C20" s="93"/>
       <c r="D20" s="91"/>
@@ -9745,7 +10007,7 @@
       <c r="R20" s="44"/>
       <c r="S20" s="87"/>
     </row>
-    <row r="21" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" ht="15.75" thickBot="1">
       <c r="B21" s="86"/>
       <c r="C21" s="93"/>
       <c r="D21" s="91"/>
@@ -9763,7 +10025,7 @@
       <c r="R21" s="89"/>
       <c r="S21" s="90"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:19">
       <c r="B22" s="86"/>
       <c r="C22" s="93"/>
       <c r="D22" s="91"/>
@@ -9780,7 +10042,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19">
       <c r="B23" s="86"/>
       <c r="C23" s="93"/>
       <c r="D23" s="91"/>
@@ -9794,7 +10056,7 @@
       <c r="M23" s="44"/>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19">
       <c r="B24" s="86"/>
       <c r="C24" s="93"/>
       <c r="D24" s="91"/>
@@ -9808,7 +10070,7 @@
       <c r="M24" s="44"/>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19">
       <c r="B25" s="86"/>
       <c r="C25" s="93"/>
       <c r="D25" s="91"/>
@@ -9822,7 +10084,7 @@
       <c r="M25" s="44"/>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="15.75" thickBot="1">
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -9851,15 +10113,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -9868,12 +10130,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -9893,7 +10155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -9913,7 +10175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -9933,7 +10195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -9953,7 +10215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -9973,7 +10235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -9993,7 +10255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -10013,7 +10275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -10033,7 +10295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -10053,7 +10315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -10086,23 +10348,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
-    <col min="5" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="39.75" customWidth="1"/>
-    <col min="11" max="12" width="14.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" ht="15.75" thickBot="1"/>
+    <row r="6" spans="3:13">
       <c r="C6" s="83" t="s">
         <v>304</v>
       </c>
@@ -10118,7 +10380,7 @@
       <c r="L6" s="99"/>
       <c r="M6" s="85"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:13">
       <c r="C7" s="86"/>
       <c r="D7" s="100"/>
       <c r="E7" s="44"/>
@@ -10140,7 +10402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:13">
       <c r="C8" s="86"/>
       <c r="D8" s="100"/>
       <c r="E8" s="44"/>
@@ -10162,7 +10424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:13">
       <c r="C9" s="86"/>
       <c r="D9" s="100"/>
       <c r="E9" s="44"/>
@@ -10182,7 +10444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13">
       <c r="C10" s="86"/>
       <c r="D10" s="100"/>
       <c r="E10" s="44"/>
@@ -10196,7 +10458,7 @@
       <c r="L10" s="100"/>
       <c r="M10" s="102"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13">
       <c r="C11" s="105" t="s">
         <v>314</v>
       </c>
@@ -10215,7 +10477,7 @@
       <c r="L11" s="100"/>
       <c r="M11" s="102"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13">
       <c r="C12" s="105" t="s">
         <v>316</v>
       </c>
@@ -10233,7 +10495,7 @@
       <c r="L12" s="100"/>
       <c r="M12" s="102"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13">
       <c r="C13" s="105" t="s">
         <v>49</v>
       </c>
@@ -10251,7 +10513,7 @@
       <c r="L13" s="100"/>
       <c r="M13" s="102"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13">
       <c r="C14" s="105" t="s">
         <v>319</v>
       </c>
@@ -10269,7 +10531,7 @@
       <c r="L14" s="100"/>
       <c r="M14" s="102"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13">
       <c r="C15" s="105" t="s">
         <v>36</v>
       </c>
@@ -10287,7 +10549,7 @@
       <c r="L15" s="100"/>
       <c r="M15" s="102"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13">
       <c r="C16" s="86"/>
       <c r="D16" s="100"/>
       <c r="E16" s="44"/>
@@ -10301,7 +10563,7 @@
       <c r="L16" s="100"/>
       <c r="M16" s="102"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="86"/>
       <c r="D17" s="100"/>
       <c r="E17" s="44"/>
@@ -10317,7 +10579,7 @@
       <c r="L17" s="100"/>
       <c r="M17" s="102"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="86"/>
       <c r="D18" s="100"/>
       <c r="E18" s="44"/>
@@ -10331,7 +10593,7 @@
       <c r="L18" s="100"/>
       <c r="M18" s="102"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="86"/>
       <c r="D19" s="100"/>
       <c r="E19" s="44"/>
@@ -10353,7 +10615,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="86"/>
       <c r="D20" s="100"/>
       <c r="E20" s="44"/>
@@ -10373,7 +10635,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" ht="15.75" thickBot="1">
       <c r="C21" s="88"/>
       <c r="D21" s="111"/>
       <c r="E21" s="89"/>
@@ -10385,8 +10647,8 @@
       <c r="L21" s="111"/>
       <c r="M21" s="112"/>
     </row>
-    <row r="25" spans="3:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13" ht="15.75" thickBot="1"/>
+    <row r="26" spans="3:13">
       <c r="C26" s="83" t="s">
         <v>329</v>
       </c>
@@ -10395,35 +10657,35 @@
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:13">
       <c r="C27" s="86"/>
       <c r="D27" s="100"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="87"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:13">
       <c r="C28" s="86"/>
       <c r="D28" s="100"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="87"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:13">
       <c r="C29" s="86"/>
       <c r="D29" s="100"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="87"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:13">
       <c r="C30" s="86"/>
       <c r="D30" s="100"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="87"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:13">
       <c r="C31" s="86" t="s">
         <v>316</v>
       </c>
@@ -10434,7 +10696,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="87"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:13">
       <c r="C32" s="86" t="s">
         <v>330</v>
       </c>
@@ -10445,7 +10707,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="87"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:7">
       <c r="C33" s="86" t="s">
         <v>39</v>
       </c>
@@ -10456,64 +10718,64 @@
       <c r="F33" s="44"/>
       <c r="G33" s="87"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:7">
       <c r="C34" s="86"/>
       <c r="D34" s="100"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="87"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:7">
       <c r="C35" s="86"/>
       <c r="D35" s="100"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
       <c r="G35" s="87"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:7">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="87"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:7">
       <c r="C37" s="86"/>
       <c r="D37" s="100"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="87"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:7">
       <c r="C38" s="86"/>
       <c r="D38" s="100"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="87"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:7">
       <c r="C39" s="86"/>
       <c r="D39" s="100"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="87"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:7">
       <c r="C40" s="86"/>
       <c r="D40" s="100"/>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
       <c r="G40" s="87"/>
     </row>
-    <row r="41" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" ht="15.75" thickBot="1">
       <c r="C41" s="88"/>
       <c r="D41" s="111"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89"/>
       <c r="G41" s="90"/>
     </row>
-    <row r="44" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:7" ht="15.75" thickBot="1"/>
+    <row r="45" spans="3:7">
       <c r="C45" s="83" t="s">
         <v>331</v>
       </c>
@@ -10522,35 +10784,35 @@
       <c r="F45" s="84"/>
       <c r="G45" s="85"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:7">
       <c r="C46" s="86"/>
       <c r="D46" s="100"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="87"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:7">
       <c r="C47" s="86"/>
       <c r="D47" s="100"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="87"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:7">
       <c r="C48" s="86"/>
       <c r="D48" s="100"/>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="87"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:7">
       <c r="C49" s="86"/>
       <c r="D49" s="100"/>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="87"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:7">
       <c r="C50" s="86" t="s">
         <v>316</v>
       </c>
@@ -10561,7 +10823,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="87"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:7">
       <c r="C51" s="86" t="s">
         <v>332</v>
       </c>
@@ -10572,7 +10834,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="87"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:7">
       <c r="C52" s="86" t="s">
         <v>333</v>
       </c>
@@ -10583,7 +10845,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="87"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:7">
       <c r="C53" s="86" t="s">
         <v>334</v>
       </c>
@@ -10595,14 +10857,14 @@
       <c r="F53" s="44"/>
       <c r="G53" s="87"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:7">
       <c r="C54" s="86"/>
       <c r="D54" s="100"/>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="87"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:7">
       <c r="C55" s="86" t="s">
         <v>335</v>
       </c>
@@ -10614,7 +10876,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="87"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:7">
       <c r="C56" s="86" t="s">
         <v>309</v>
       </c>
@@ -10625,36 +10887,36 @@
       <c r="F56" s="44"/>
       <c r="G56" s="87"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:7">
       <c r="C57" s="86"/>
       <c r="D57" s="100"/>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="87"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:7">
       <c r="C58" s="86"/>
       <c r="D58" s="100"/>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="87"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:7">
       <c r="C59" s="86"/>
       <c r="D59" s="100"/>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="87"/>
     </row>
-    <row r="60" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" ht="15.75" thickBot="1">
       <c r="C60" s="88"/>
       <c r="D60" s="111"/>
       <c r="E60" s="89"/>
       <c r="F60" s="89"/>
       <c r="G60" s="90"/>
     </row>
-    <row r="64" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:7" ht="15.75" thickBot="1"/>
+    <row r="65" spans="3:7">
       <c r="C65" s="83" t="s">
         <v>336</v>
       </c>
@@ -10663,35 +10925,35 @@
       <c r="F65" s="84"/>
       <c r="G65" s="85"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:7">
       <c r="C66" s="86"/>
       <c r="D66" s="100"/>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="87"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:7">
       <c r="C67" s="86"/>
       <c r="D67" s="100"/>
       <c r="E67" s="44"/>
       <c r="F67" s="44"/>
       <c r="G67" s="87"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:7">
       <c r="C68" s="86"/>
       <c r="D68" s="100"/>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="87"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:7">
       <c r="C69" s="86"/>
       <c r="D69" s="100"/>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
       <c r="G69" s="87"/>
     </row>
-    <row r="70" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:7" ht="15.75" thickBot="1">
       <c r="C70" s="86" t="s">
         <v>316</v>
       </c>
@@ -10702,7 +10964,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="87"/>
     </row>
-    <row r="71" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:7" ht="15.75" thickBot="1">
       <c r="C71" s="114" t="s">
         <v>337</v>
       </c>
@@ -10713,7 +10975,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="87"/>
     </row>
-    <row r="72" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:7" ht="15.75" thickBot="1">
       <c r="C72" s="115" t="s">
         <v>338</v>
       </c>
@@ -10724,7 +10986,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="87"/>
     </row>
-    <row r="73" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:7" ht="15.75" thickBot="1">
       <c r="C73" s="115" t="s">
         <v>339</v>
       </c>
@@ -10736,57 +10998,57 @@
       <c r="F73" s="44"/>
       <c r="G73" s="87"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:7">
       <c r="C74" s="86"/>
       <c r="D74" s="100"/>
       <c r="E74" s="44"/>
       <c r="F74" s="44"/>
       <c r="G74" s="87"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:7">
       <c r="C75" s="86"/>
       <c r="D75" s="113"/>
       <c r="E75" s="44"/>
       <c r="F75" s="44"/>
       <c r="G75" s="87"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:7">
       <c r="C76" s="86"/>
       <c r="D76" s="108"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="87"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:7">
       <c r="C77" s="86"/>
       <c r="D77" s="100"/>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="87"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:7">
       <c r="C78" s="86"/>
       <c r="D78" s="100"/>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="87"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:7">
       <c r="C79" s="86"/>
       <c r="D79" s="100"/>
       <c r="E79" s="44"/>
       <c r="F79" s="44"/>
       <c r="G79" s="87"/>
     </row>
-    <row r="80" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:7" ht="15.75" thickBot="1">
       <c r="C80" s="88"/>
       <c r="D80" s="111"/>
       <c r="E80" s="89"/>
       <c r="F80" s="89"/>
       <c r="G80" s="90"/>
     </row>
-    <row r="83" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:7" ht="15.75" thickBot="1"/>
+    <row r="84" spans="3:7">
       <c r="C84" s="83" t="s">
         <v>340</v>
       </c>
@@ -10795,35 +11057,35 @@
       <c r="F84" s="84"/>
       <c r="G84" s="85"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:7">
       <c r="C85" s="86"/>
       <c r="D85" s="100"/>
       <c r="E85" s="44"/>
       <c r="F85" s="44"/>
       <c r="G85" s="87"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:7">
       <c r="C86" s="86"/>
       <c r="D86" s="100"/>
       <c r="E86" s="44"/>
       <c r="F86" s="44"/>
       <c r="G86" s="87"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:7">
       <c r="C87" s="86"/>
       <c r="D87" s="100"/>
       <c r="E87" s="44"/>
       <c r="F87" s="44"/>
       <c r="G87" s="87"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:7">
       <c r="C88" s="86"/>
       <c r="D88" s="100"/>
       <c r="E88" s="44"/>
       <c r="F88" s="44"/>
       <c r="G88" s="87"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:7">
       <c r="C89" s="86" t="s">
         <v>49</v>
       </c>
@@ -10834,7 +11096,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="87"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:7">
       <c r="C90" s="86" t="s">
         <v>332</v>
       </c>
@@ -10845,7 +11107,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="87"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:7">
       <c r="C91" s="86" t="s">
         <v>333</v>
       </c>
@@ -10856,7 +11118,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="87"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:7">
       <c r="C92" s="86" t="s">
         <v>334</v>
       </c>
@@ -10868,14 +11130,14 @@
       <c r="F92" s="44"/>
       <c r="G92" s="87"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:7">
       <c r="C93" s="86"/>
       <c r="D93" s="100"/>
       <c r="E93" s="44"/>
       <c r="F93" s="44"/>
       <c r="G93" s="87"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:7">
       <c r="C94" s="86" t="s">
         <v>335</v>
       </c>
@@ -10887,7 +11149,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="87"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:7">
       <c r="C95" s="86" t="s">
         <v>309</v>
       </c>
@@ -10898,28 +11160,28 @@
       <c r="F95" s="44"/>
       <c r="G95" s="87"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:7">
       <c r="C96" s="86"/>
       <c r="D96" s="100"/>
       <c r="E96" s="44"/>
       <c r="F96" s="44"/>
       <c r="G96" s="87"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:7">
       <c r="C97" s="86"/>
       <c r="D97" s="100"/>
       <c r="E97" s="44"/>
       <c r="F97" s="44"/>
       <c r="G97" s="87"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:7">
       <c r="C98" s="86"/>
       <c r="D98" s="100"/>
       <c r="E98" s="44"/>
       <c r="F98" s="44"/>
       <c r="G98" s="87"/>
     </row>
-    <row r="99" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:7" ht="15.75" thickBot="1">
       <c r="C99" s="88"/>
       <c r="D99" s="111"/>
       <c r="E99" s="89"/>
@@ -10941,17 +11203,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="17" width="14.25" customWidth="1"/>
+    <col min="3" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:15" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:15">
       <c r="C3" s="83" t="s">
         <v>304</v>
       </c>
@@ -10969,7 +11231,7 @@
       <c r="N3" s="84"/>
       <c r="O3" s="85"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:15">
       <c r="C4" s="86"/>
       <c r="D4" s="100"/>
       <c r="E4" s="44"/>
@@ -10983,7 +11245,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="87"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:15">
       <c r="C5" s="86"/>
       <c r="D5" s="100"/>
       <c r="E5" s="44"/>
@@ -10997,7 +11259,7 @@
       <c r="N5" s="44"/>
       <c r="O5" s="87"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:15">
       <c r="C6" s="86"/>
       <c r="D6" s="100"/>
       <c r="E6" s="44"/>
@@ -11011,7 +11273,7 @@
       <c r="N6" s="44"/>
       <c r="O6" s="87"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:15">
       <c r="C7" s="86"/>
       <c r="D7" s="100"/>
       <c r="E7" s="44"/>
@@ -11025,7 +11287,7 @@
       <c r="N7" s="44"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:15">
       <c r="C8" s="105" t="s">
         <v>314</v>
       </c>
@@ -11048,7 +11310,7 @@
       <c r="N8" s="44"/>
       <c r="O8" s="87"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:15">
       <c r="C9" s="105" t="s">
         <v>316</v>
       </c>
@@ -11070,7 +11332,7 @@
       <c r="N9" s="44"/>
       <c r="O9" s="87"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:15">
       <c r="C10" s="105" t="s">
         <v>49</v>
       </c>
@@ -11092,7 +11354,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="87"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:15">
       <c r="C11" s="105" t="s">
         <v>319</v>
       </c>
@@ -11115,7 +11377,7 @@
       <c r="N11" s="44"/>
       <c r="O11" s="87"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:15">
       <c r="C12" s="105" t="s">
         <v>36</v>
       </c>
@@ -11133,7 +11395,7 @@
       <c r="N12" s="44"/>
       <c r="O12" s="87"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:15">
       <c r="C13" s="86"/>
       <c r="D13" s="100"/>
       <c r="E13" s="44"/>
@@ -11152,7 +11414,7 @@
       <c r="N13" s="44"/>
       <c r="O13" s="87"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:15">
       <c r="C14" s="86"/>
       <c r="D14" s="100"/>
       <c r="E14" s="44"/>
@@ -11170,7 +11432,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="87"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:15">
       <c r="C15" s="86"/>
       <c r="D15" s="100"/>
       <c r="E15" s="44"/>
@@ -11184,7 +11446,7 @@
       <c r="N15" s="44"/>
       <c r="O15" s="87"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:15">
       <c r="C16" s="86"/>
       <c r="D16" s="100"/>
       <c r="E16" s="44"/>
@@ -11198,7 +11460,7 @@
       <c r="N16" s="44"/>
       <c r="O16" s="87"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:15">
       <c r="C17" s="86"/>
       <c r="D17" s="100"/>
       <c r="E17" s="44"/>
@@ -11212,7 +11474,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="87"/>
     </row>
-    <row r="18" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" ht="15.75" thickBot="1">
       <c r="C18" s="88"/>
       <c r="D18" s="111"/>
       <c r="E18" s="89"/>
@@ -11226,19 +11488,19 @@
       <c r="N18" s="89"/>
       <c r="O18" s="90"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:15">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:15">
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:15">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" ht="15.75" thickBot="1">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:15">
       <c r="C23" s="83" t="s">
         <v>329</v>
       </c>
@@ -11256,7 +11518,7 @@
       <c r="N23" s="84"/>
       <c r="O23" s="85"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:15">
       <c r="C24" s="86"/>
       <c r="D24" s="100"/>
       <c r="E24" s="44"/>
@@ -11270,7 +11532,7 @@
       <c r="N24" s="44"/>
       <c r="O24" s="87"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:15">
       <c r="C25" s="86"/>
       <c r="D25" s="100"/>
       <c r="E25" s="44"/>
@@ -11284,7 +11546,7 @@
       <c r="N25" s="44"/>
       <c r="O25" s="87"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:15">
       <c r="C26" s="86"/>
       <c r="D26" s="100"/>
       <c r="E26" s="44"/>
@@ -11298,7 +11560,7 @@
       <c r="N26" s="44"/>
       <c r="O26" s="87"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:15">
       <c r="C27" s="86"/>
       <c r="D27" s="100"/>
       <c r="E27" s="44"/>
@@ -11312,7 +11574,7 @@
       <c r="N27" s="44"/>
       <c r="O27" s="87"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:15">
       <c r="C28" s="86" t="s">
         <v>316</v>
       </c>
@@ -11334,7 +11596,7 @@
       <c r="N28" s="44"/>
       <c r="O28" s="87"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:15">
       <c r="C29" s="86" t="s">
         <v>330</v>
       </c>
@@ -11356,7 +11618,7 @@
       <c r="N29" s="44"/>
       <c r="O29" s="87"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:15">
       <c r="C30" s="86" t="s">
         <v>39</v>
       </c>
@@ -11378,7 +11640,7 @@
       <c r="N30" s="44"/>
       <c r="O30" s="87"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:15">
       <c r="C31" s="86"/>
       <c r="D31" s="100"/>
       <c r="E31" s="44"/>
@@ -11397,7 +11659,7 @@
       <c r="N31" s="44"/>
       <c r="O31" s="87"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:15">
       <c r="C32" s="86"/>
       <c r="D32" s="100"/>
       <c r="E32" s="44"/>
@@ -11411,7 +11673,7 @@
       <c r="N32" s="44"/>
       <c r="O32" s="87"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:16">
       <c r="C33" s="86"/>
       <c r="D33" s="100"/>
       <c r="E33" s="44"/>
@@ -11430,7 +11692,7 @@
       <c r="N33" s="44"/>
       <c r="O33" s="87"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:16">
       <c r="C34" s="86"/>
       <c r="D34" s="100"/>
       <c r="E34" s="44"/>
@@ -11448,7 +11710,7 @@
       <c r="N34" s="44"/>
       <c r="O34" s="87"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:16">
       <c r="C35" s="86"/>
       <c r="D35" s="100"/>
       <c r="E35" s="44"/>
@@ -11462,7 +11724,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="87"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:16">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="44"/>
@@ -11476,7 +11738,7 @@
       <c r="N36" s="44"/>
       <c r="O36" s="87"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:16">
       <c r="C37" s="86"/>
       <c r="D37" s="100"/>
       <c r="E37" s="44"/>
@@ -11490,7 +11752,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="87"/>
     </row>
-    <row r="38" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:16" ht="15.75" thickBot="1">
       <c r="C38" s="88"/>
       <c r="D38" s="111"/>
       <c r="E38" s="89"/>
@@ -11504,37 +11766,37 @@
       <c r="N38" s="89"/>
       <c r="O38" s="90"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:16">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16">
       <c r="D40" s="5"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:16">
       <c r="C42" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="155" t="s">
+      <c r="D42" s="157" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="156" t="s">
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="N42" s="156"/>
-      <c r="O42" s="157" t="s">
+      <c r="N42" s="158"/>
+      <c r="O42" s="159" t="s">
         <v>326</v>
       </c>
-      <c r="P42" s="157"/>
-    </row>
-    <row r="43" spans="3:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="P42" s="159"/>
+    </row>
+    <row r="43" spans="3:16" ht="45">
       <c r="C43" s="81" t="s">
         <v>307</v>
       </c>
@@ -11578,7 +11840,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:16">
       <c r="C44" s="100" t="s">
         <v>26</v>
       </c>
@@ -11604,7 +11866,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:16">
       <c r="C45" s="100" t="s">
         <v>308</v>
       </c>
@@ -11630,7 +11892,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:16">
       <c r="C46" s="44" t="s">
         <v>309</v>
       </c>
@@ -11679,19 +11941,19 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="3" max="17" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="120" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:15">
       <c r="C3" s="83" t="s">
         <v>304</v>
       </c>
@@ -11709,7 +11971,7 @@
       <c r="N3" s="84"/>
       <c r="O3" s="85"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="C4" s="86"/>
       <c r="D4" s="100"/>
       <c r="E4" s="44"/>
@@ -11723,7 +11985,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="87"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="C5" s="86"/>
       <c r="D5" s="100"/>
       <c r="E5" s="44"/>
@@ -11737,7 +11999,7 @@
       <c r="N5" s="44"/>
       <c r="O5" s="87"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="C6" s="86"/>
       <c r="D6" s="100"/>
       <c r="E6" s="44"/>
@@ -11751,7 +12013,7 @@
       <c r="N6" s="44"/>
       <c r="O6" s="87"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="C7" s="86"/>
       <c r="D7" s="100"/>
       <c r="E7" s="44"/>
@@ -11765,7 +12027,7 @@
       <c r="N7" s="44"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="C8" s="105" t="s">
         <v>314</v>
       </c>
@@ -11788,7 +12050,7 @@
       <c r="N8" s="44"/>
       <c r="O8" s="87"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="C9" s="105" t="s">
         <v>316</v>
       </c>
@@ -11810,7 +12072,7 @@
       <c r="N9" s="44"/>
       <c r="O9" s="87"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="C10" s="105" t="s">
         <v>49</v>
       </c>
@@ -11832,7 +12094,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="87"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="C11" s="105" t="s">
         <v>319</v>
       </c>
@@ -11855,7 +12117,7 @@
       <c r="N11" s="44"/>
       <c r="O11" s="87"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="C12" s="105" t="s">
         <v>36</v>
       </c>
@@ -11873,7 +12135,7 @@
       <c r="N12" s="44"/>
       <c r="O12" s="87"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="C13" s="86"/>
       <c r="D13" s="100"/>
       <c r="E13" s="44"/>
@@ -11892,7 +12154,7 @@
       <c r="N13" s="44"/>
       <c r="O13" s="87"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="C14" s="86"/>
       <c r="D14" s="100"/>
       <c r="E14" s="44"/>
@@ -11910,7 +12172,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="87"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="C15" s="86"/>
       <c r="D15" s="100"/>
       <c r="E15" s="44"/>
@@ -11924,7 +12186,7 @@
       <c r="N15" s="44"/>
       <c r="O15" s="87"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="C16" s="86"/>
       <c r="D16" s="100"/>
       <c r="E16" s="44"/>
@@ -11938,7 +12200,7 @@
       <c r="N16" s="44"/>
       <c r="O16" s="87"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:15">
       <c r="C17" s="86"/>
       <c r="D17" s="100"/>
       <c r="E17" s="44"/>
@@ -11952,7 +12214,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="87"/>
     </row>
-    <row r="18" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" ht="15.75" thickBot="1">
       <c r="C18" s="88"/>
       <c r="D18" s="111"/>
       <c r="E18" s="89"/>
@@ -11966,19 +12228,19 @@
       <c r="N18" s="89"/>
       <c r="O18" s="90"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:15">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:15">
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:15">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" ht="15.75" thickBot="1">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:15">
       <c r="C23" s="83" t="s">
         <v>329</v>
       </c>
@@ -11996,7 +12258,7 @@
       <c r="N23" s="84"/>
       <c r="O23" s="85"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:15">
       <c r="C24" s="86"/>
       <c r="D24" s="100"/>
       <c r="E24" s="44"/>
@@ -12010,7 +12272,7 @@
       <c r="N24" s="44"/>
       <c r="O24" s="87"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:15">
       <c r="C25" s="86"/>
       <c r="D25" s="100"/>
       <c r="E25" s="44"/>
@@ -12024,7 +12286,7 @@
       <c r="N25" s="44"/>
       <c r="O25" s="87"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:15">
       <c r="C26" s="86"/>
       <c r="D26" s="100"/>
       <c r="E26" s="44"/>
@@ -12038,7 +12300,7 @@
       <c r="N26" s="44"/>
       <c r="O26" s="87"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:15">
       <c r="C27" s="86"/>
       <c r="D27" s="100"/>
       <c r="E27" s="44"/>
@@ -12052,7 +12314,7 @@
       <c r="N27" s="44"/>
       <c r="O27" s="87"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:15">
       <c r="C28" s="86" t="s">
         <v>316</v>
       </c>
@@ -12074,7 +12336,7 @@
       <c r="N28" s="44"/>
       <c r="O28" s="87"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:15">
       <c r="C29" s="86" t="s">
         <v>330</v>
       </c>
@@ -12096,7 +12358,7 @@
       <c r="N29" s="44"/>
       <c r="O29" s="87"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:15">
       <c r="C30" s="86" t="s">
         <v>39</v>
       </c>
@@ -12118,7 +12380,7 @@
       <c r="N30" s="44"/>
       <c r="O30" s="87"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:15">
       <c r="C31" s="86"/>
       <c r="D31" s="100"/>
       <c r="E31" s="44"/>
@@ -12137,7 +12399,7 @@
       <c r="N31" s="44"/>
       <c r="O31" s="87"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:15">
       <c r="C32" s="86"/>
       <c r="D32" s="100"/>
       <c r="E32" s="44"/>
@@ -12151,7 +12413,7 @@
       <c r="N32" s="44"/>
       <c r="O32" s="87"/>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:16">
       <c r="C33" s="86"/>
       <c r="D33" s="100"/>
       <c r="E33" s="44"/>
@@ -12170,7 +12432,7 @@
       <c r="N33" s="44"/>
       <c r="O33" s="87"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:16">
       <c r="C34" s="86"/>
       <c r="D34" s="100"/>
       <c r="E34" s="44"/>
@@ -12188,7 +12450,7 @@
       <c r="N34" s="44"/>
       <c r="O34" s="87"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:16">
       <c r="C35" s="86"/>
       <c r="D35" s="100"/>
       <c r="E35" s="44"/>
@@ -12202,7 +12464,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="87"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:16">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="44"/>
@@ -12216,7 +12478,7 @@
       <c r="N36" s="44"/>
       <c r="O36" s="87"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:16">
       <c r="C37" s="86"/>
       <c r="D37" s="100"/>
       <c r="E37" s="44"/>
@@ -12230,7 +12492,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="87"/>
     </row>
-    <row r="38" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:16" ht="15.75" thickBot="1">
       <c r="C38" s="88"/>
       <c r="D38" s="111"/>
       <c r="E38" s="89"/>
@@ -12244,37 +12506,37 @@
       <c r="N38" s="89"/>
       <c r="O38" s="90"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:16">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16">
       <c r="D40" s="5"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:16">
       <c r="C42" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="155" t="s">
+      <c r="D42" s="157" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="156" t="s">
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="N42" s="156"/>
-      <c r="O42" s="157" t="s">
+      <c r="N42" s="158"/>
+      <c r="O42" s="159" t="s">
         <v>326</v>
       </c>
-      <c r="P42" s="157"/>
-    </row>
-    <row r="43" spans="3:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="P42" s="159"/>
+    </row>
+    <row r="43" spans="3:16" ht="45">
       <c r="C43" s="81" t="s">
         <v>307</v>
       </c>
@@ -12318,7 +12580,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:16">
       <c r="C44" s="100" t="s">
         <v>26</v>
       </c>
@@ -12344,7 +12606,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:16">
       <c r="C45" s="100" t="s">
         <v>308</v>
       </c>
@@ -12370,7 +12632,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:16">
       <c r="C46" s="44" t="s">
         <v>309</v>
       </c>
@@ -12416,41 +12678,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="15" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="157" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156" t="s">
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="M5" s="156"/>
-      <c r="N5" s="157" t="s">
+      <c r="M5" s="158"/>
+      <c r="N5" s="159" t="s">
         <v>326</v>
       </c>
-      <c r="O5" s="157"/>
-    </row>
-    <row r="6" spans="2:15" s="82" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="O5" s="159"/>
+    </row>
+    <row r="6" spans="2:15" s="82" customFormat="1" ht="75">
       <c r="B6" s="81" t="s">
         <v>307</v>
       </c>
@@ -12494,7 +12756,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7" s="100" t="s">
         <v>26</v>
       </c>
@@ -12520,7 +12782,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="100" t="s">
         <v>308</v>
       </c>
@@ -12546,7 +12808,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="B9" s="44" t="s">
         <v>309</v>
       </c>
@@ -12590,27 +12852,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="70.625" customWidth="1"/>
-    <col min="8" max="8" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="16.5">
       <c r="B3" s="121" t="s">
         <v>342</v>
       </c>
@@ -12630,7 +12892,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="16.5">
       <c r="B4" s="122">
         <v>1</v>
       </c>
@@ -12650,7 +12912,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="16.5">
       <c r="B5" s="122">
         <v>1</v>
       </c>
@@ -12670,7 +12932,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="16.5">
       <c r="B6" s="122">
         <v>1</v>
       </c>
@@ -12690,7 +12952,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="16.5">
       <c r="B7" s="122">
         <v>1</v>
       </c>
@@ -12710,7 +12972,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="126">
         <v>1</v>
       </c>
@@ -12730,7 +12992,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="126">
         <v>1</v>
       </c>
@@ -12750,7 +13012,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="16.5">
       <c r="B10" s="122">
         <v>1</v>
       </c>
@@ -12770,7 +13032,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="16.5">
       <c r="B11" s="122">
         <v>1</v>
       </c>
@@ -12790,7 +13052,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="16.5">
       <c r="B12" s="122">
         <v>1</v>
       </c>
@@ -12810,7 +13072,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="126">
         <v>1</v>
       </c>
@@ -12830,7 +13092,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="126">
         <v>1</v>
       </c>
@@ -12850,7 +13112,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="126">
         <v>1</v>
       </c>
@@ -12870,7 +13132,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="126">
         <v>1</v>
       </c>
@@ -12890,12 +13152,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15.75" thickBot="1">
       <c r="C22" s="123" t="s">
         <v>343</v>
       </c>
@@ -12906,7 +13168,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15.75" thickTop="1">
       <c r="C23" s="128" t="s">
         <v>356</v>
       </c>
@@ -12917,7 +13179,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="C24" s="131" t="s">
         <v>358</v>
       </c>
@@ -12928,7 +13190,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="C25" s="131" t="s">
         <v>366</v>
       </c>
@@ -12939,7 +13201,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="C26" s="128" t="s">
         <v>368</v>
       </c>
@@ -12950,7 +13212,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="C27" s="131" t="s">
         <v>370</v>
       </c>
@@ -12961,7 +13223,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="C28" s="134" t="s">
         <v>372</v>
       </c>
@@ -12986,11 +13248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12998,126 +13260,464 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="24.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="138" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="138"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="138" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="138" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="138" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="138" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="138"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="138"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="138" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="138"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="138"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="138"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="138"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="138"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="138" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="138"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="138" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="138"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="138"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="138"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" t="s">
+        <v>416</v>
+      </c>
+      <c r="J4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="J5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K5" s="137" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J17" t="s">
+        <v>379</v>
+      </c>
+      <c r="K17" s="137" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="18" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="2:7" s="19" customFormat="1">
+      <c r="B45" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13129,14 +13729,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>265</v>
       </c>
@@ -13147,7 +13747,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>262</v>
       </c>
@@ -13172,15 +13772,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1">
       <c r="B7" s="22" t="s">
         <v>210</v>
       </c>
@@ -13216,7 +13816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="36">
       <c r="B8" s="139"/>
       <c r="C8" s="139"/>
       <c r="D8" s="139"/>
@@ -13238,37 +13838,37 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
+    <row r="9" spans="2:13">
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-    </row>
-    <row r="10" spans="2:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+    </row>
+    <row r="10" spans="2:13" ht="84.75" thickBot="1">
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-    </row>
-    <row r="11" spans="2:13" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+    </row>
+    <row r="11" spans="2:13" ht="108.75" thickBot="1">
       <c r="B11" s="77"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -13286,8 +13886,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1">
       <c r="B18" s="22" t="s">
         <v>93</v>
       </c>
@@ -13319,13 +13919,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="24" x14ac:dyDescent="0.15">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
+    <row r="19" spans="2:11" ht="24">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="137"/>
+      <c r="E19" s="142"/>
       <c r="F19" s="24" t="s">
         <v>104</v>
       </c>
@@ -13335,34 +13935,26 @@
       <c r="H19" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-    </row>
-    <row r="20" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="138"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+    </row>
+    <row r="20" spans="2:11" ht="72.75" thickBot="1">
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="143"/>
       <c r="F20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
@@ -13372,6 +13964,14 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13388,10 +13988,10 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:13" ht="24.75" thickBot="1">
       <c r="B4" s="22" t="s">
         <v>210</v>
       </c>
@@ -13429,7 +14029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" ht="36">
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139"/>
@@ -13455,35 +14055,35 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
+    <row r="6" spans="2:13">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
       <c r="J6" s="78"/>
       <c r="K6" s="78"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-    </row>
-    <row r="7" spans="2:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+    </row>
+    <row r="7" spans="2:13" ht="84.75" thickBot="1">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
       <c r="J7" s="77"/>
       <c r="K7" s="77"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13509,9 +14109,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
@@ -13523,7 +14123,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
@@ -13533,7 +14133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
@@ -13541,39 +14141,39 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="142" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
@@ -13585,12 +14185,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -13616,7 +14216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>123</v>
       </c>
@@ -13642,7 +14242,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
         <v>165</v>
       </c>
@@ -13651,12 +14251,12 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>70</v>
       </c>
@@ -13682,7 +14282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>123</v>
       </c>
@@ -13729,13 +14329,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
@@ -13747,7 +14347,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13757,7 +14357,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -13767,7 +14367,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -13777,12 +14377,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -13808,7 +14408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>123</v>
       </c>
@@ -13851,9 +14451,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
@@ -13866,7 +14466,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -13877,7 +14477,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -13888,7 +14488,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -13899,12 +14499,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -13933,7 +14533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10">
       <c r="B13">
         <v>123</v>
       </c>

--- a/@doc/界面框架简述.xlsx
+++ b/@doc/界面框架简述.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="8445" tabRatio="844" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="8445" tabRatio="844" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="配方" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,9 @@
     <sheet name="牧场指标" sheetId="23" r:id="rId23"/>
     <sheet name="牧场参数" sheetId="25" r:id="rId24"/>
     <sheet name="诊断" sheetId="26" r:id="rId25"/>
-    <sheet name="牛档案卡" sheetId="27" r:id="rId26"/>
-    <sheet name="牛群" sheetId="28" r:id="rId27"/>
-    <sheet name="平台-牧场管理" sheetId="29" r:id="rId28"/>
-    <sheet name="平台-饲料管理" sheetId="30" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
@@ -301,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="376">
   <si>
     <t>说明:</t>
   </si>
@@ -313,7 +309,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,7 +319,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -829,7 +825,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +849,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -877,7 +873,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -901,7 +897,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1684,167 +1680,16 @@
   <si>
     <t>方案2</t>
   </si>
-  <si>
-    <t>新增饲料：</t>
-  </si>
-  <si>
-    <t>配方适配界面：（把所有本牧场配方的饲料都对应上。）（只读）</t>
-  </si>
-  <si>
-    <t>或者只显示未配上的标准饲料</t>
-  </si>
-  <si>
-    <t>SQL：</t>
-  </si>
-  <si>
-    <t>use [1mutong]
-select dbo.Feed_Fodder.ID,dbo.Feed_Fodder.Name as SysFodderName,cc.FodderID as PastureFodderID,cc.FodderName as PastureFodderName
-from dbo.Feed_Fodder left join (select * from dbo.Feed_PastureFodder where IsCurrent=1)as cc
-on dbo.Feed_Fodder.ID=cc.SysFodderID
-where dbo.Feed_Fodder.ID IN (
-select DISTINCT dbo.Feed_FodderFormula.FodderID
-from dbo.Feed_FodderFormula 
-where dbo.Feed_FodderFormula.FormulaID IN
-(select DISTINCT dbo.Base_CowGroup.FormulaID 
-from dbo.Base_CowGroup 
-where dbo.Base_CowGroup.PastureID=6)
-)</t>
-  </si>
-  <si>
-    <t>use [1mutong]
-select dbo.Feed_Fodder.ID,dbo.Feed_Fodder.Name as SysFodderName,cc.FodderID as PastureFodderID,cc.FodderName as PastureFodderName
-from dbo.Feed_Fodder left join (select * from dbo.Feed_PastureFodder where IsCurrent=1)as cc
-on dbo.Feed_Fodder.ID=cc.SysFodderID
-where cc.FodderID is null and Feed_Fodder.ID IN (
-select DISTINCT dbo.Feed_FodderFormula.FodderID
-from dbo.Feed_FodderFormula 
-where dbo.Feed_FodderFormula.FormulaID IN
-(select DISTINCT dbo.Base_CowGroup.FormulaID 
-from dbo.Base_CowGroup 
-where dbo.Base_CowGroup.PastureID=6)
-)</t>
-  </si>
-  <si>
-    <t>针对以上情况，所以用户可以新增饲料</t>
-  </si>
-  <si>
-    <t>牛耳号</t>
-  </si>
-  <si>
-    <t>牛耳号（显示耳号）</t>
-  </si>
-  <si>
-    <t>入口参数可以是耳号，或者牧场ID+显示耳号；这样直接显示牛，或者在本界面输入牛显示耳号。</t>
-  </si>
-  <si>
-    <t>*******▼</t>
-  </si>
-  <si>
-    <t>牛基本信息</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>月龄</t>
-  </si>
-  <si>
-    <t>母亲号：</t>
-  </si>
-  <si>
-    <t>父亲号：（可空）</t>
-  </si>
-  <si>
-    <t>如系青年牛/经产牛：</t>
-  </si>
-  <si>
-    <t>繁殖状态：</t>
-  </si>
-  <si>
-    <t>初检-</t>
-  </si>
-  <si>
-    <t>2011.3.1</t>
-  </si>
-  <si>
-    <t>母</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>如系经产牛</t>
-  </si>
-  <si>
-    <t>胎次：</t>
-  </si>
-  <si>
-    <t>最近日产量？？</t>
-  </si>
-  <si>
-    <t>体况：</t>
-  </si>
-  <si>
-    <t>出生体重等</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>泌乳状况</t>
-  </si>
-  <si>
-    <t>泌乳/干奶</t>
-  </si>
-  <si>
-    <t>入口参数List&lt;CowInfo&gt;</t>
-  </si>
-  <si>
-    <t>牛类型</t>
-  </si>
-  <si>
-    <t>犊牛,…</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>配次</t>
-  </si>
-  <si>
-    <t>最后配种时间</t>
-  </si>
-  <si>
-    <t>最后产犊时间</t>
-  </si>
-  <si>
-    <t>干奶？</t>
-  </si>
-  <si>
-    <t>牛群类型</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>产奶状况：</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="50">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1852,7 +1697,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1860,7 +1705,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1868,7 +1713,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1893,7 +1738,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1901,7 +1746,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1927,7 +1772,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1990,7 +1835,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1999,7 +1844,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2007,7 +1852,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2016,7 +1861,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2024,7 +1869,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2177,7 +2022,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2944,7 +2789,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="20" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -3238,23 +3083,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -3264,7 +3105,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3279,13 +3126,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3690,7 +3531,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3774,7 +3615,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3792,7 +3632,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3876,7 +3716,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3894,7 +3733,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3967,7 +3806,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3985,7 +3823,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4063,7 +3901,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4081,7 +3918,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4159,7 +3996,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4177,7 +4013,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4250,7 +4086,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4268,7 +4103,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4346,7 +4181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4364,7 +4198,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4442,7 +4276,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4460,7 +4293,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4538,7 +4371,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4556,7 +4388,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4658,7 +4490,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4749,7 +4581,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4845,7 +4677,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4944,13 +4776,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333017</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>94999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4970,82 +4802,6 @@
         <a:xfrm>
           <a:off x="514350" y="942975"/>
           <a:ext cx="2866667" cy="2009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390005</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>75964</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="857250"/>
-          <a:ext cx="4161905" cy="1885714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>37562</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="3429000"/>
-          <a:ext cx="4304762" cy="790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5807,9 +5563,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5918,24 +5674,6 @@
     <tableColumn id="6" name="CanBeConfiguredByPasture" dataDxfId="2"/>
     <tableColumn id="7" name="CanBeConfiguredByAdmin" dataDxfId="1"/>
     <tableColumn id="3" name="Description" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="B4:J15" totalsRowShown="0">
-  <autoFilter ref="B4:J15"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="牛耳号"/>
-    <tableColumn id="2" name="牛群"/>
-    <tableColumn id="3" name="牛舍"/>
-    <tableColumn id="4" name="牛类型"/>
-    <tableColumn id="5" name="牛群类型"/>
-    <tableColumn id="6" name="月龄"/>
-    <tableColumn id="7" name="…"/>
-    <tableColumn id="8" name="列1"/>
-    <tableColumn id="9" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6360,18 +6098,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6390,7 +6128,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -6419,7 +6157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -6427,7 +6165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -6435,7 +6173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6443,7 +6181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -6451,7 +6189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6459,7 +6197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6467,7 +6205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -6475,7 +6213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -6483,7 +6221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -6491,12 +6229,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6507,7 +6245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
@@ -6515,7 +6253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -6541,7 +6279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickTop="1">
+    <row r="22" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
@@ -6573,9 +6311,9 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -6588,7 +6326,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6599,7 +6337,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6610,7 +6348,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6621,12 +6359,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -6655,7 +6393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>123</v>
       </c>
@@ -6701,9 +6439,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -6722,17 +6460,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>164</v>
       </c>
@@ -6751,26 +6489,26 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>158</v>
       </c>
@@ -6787,7 +6525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4.2</v>
       </c>
@@ -6804,12 +6542,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>158</v>
       </c>
@@ -6826,7 +6564,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>4.2</v>
       </c>
@@ -6862,15 +6600,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6890,7 +6628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>120</v>
       </c>
@@ -6901,7 +6639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
@@ -6912,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
         <v>114</v>
       </c>
@@ -6920,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" s="5" t="s">
         <v>115</v>
       </c>
@@ -6928,7 +6666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
@@ -6936,7 +6674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
@@ -6962,12 +6700,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="17" width="12.5703125" customWidth="1"/>
+    <col min="2" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -6975,7 +6713,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6984,8 +6722,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1">
+    <row r="4" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
         <v>121</v>
       </c>
@@ -7035,7 +6773,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+    <row r="6" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28">
         <v>41795</v>
       </c>
@@ -7061,7 +6799,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1">
+    <row r="7" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28">
         <v>41795</v>
       </c>
@@ -7087,13 +6825,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:17" ht="29.25" thickBot="1">
+    <row r="11" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="34" t="s">
         <v>72</v>
       </c>
@@ -7110,7 +6848,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1">
+    <row r="13" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28">
         <v>41795</v>
       </c>
@@ -7127,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -7148,12 +6886,12 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>146</v>
       </c>
@@ -7178,14 +6916,14 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>151</v>
       </c>
@@ -7193,7 +6931,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>150</v>
       </c>
@@ -7213,14 +6951,14 @@
       <selection activeCell="D186" sqref="D186:I186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="40" t="s">
         <v>166</v>
       </c>
@@ -7243,7 +6981,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
         <v>170</v>
       </c>
@@ -7258,7 +6996,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="43" t="s">
         <v>185</v>
       </c>
@@ -7270,7 +7008,7 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -7280,7 +7018,7 @@
       <c r="H5" s="44"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="43" t="s">
         <v>177</v>
       </c>
@@ -7294,7 +7032,7 @@
       <c r="H6" s="44"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -7304,7 +7042,7 @@
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="43" t="s">
         <v>179</v>
       </c>
@@ -7316,7 +7054,7 @@
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="43" t="s">
         <v>180</v>
       </c>
@@ -7328,7 +7066,7 @@
       <c r="H9" s="44"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="2:12" ht="28.5">
+    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="43" t="s">
         <v>171</v>
       </c>
@@ -7352,7 +7090,7 @@
       </c>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="48" t="s">
         <v>181</v>
       </c>
@@ -7364,7 +7102,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="49" t="s">
         <v>182</v>
       </c>
@@ -7376,7 +7114,7 @@
       <c r="H12" s="44"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="49" t="s">
         <v>183</v>
       </c>
@@ -7388,7 +7126,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="43" t="s">
         <v>193</v>
       </c>
@@ -7400,7 +7138,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
@@ -7416,7 +7154,7 @@
       </c>
       <c r="I15" s="53"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="40" t="s">
         <v>166</v>
       </c>
@@ -7439,7 +7177,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="43" t="s">
         <v>180</v>
       </c>
@@ -7454,7 +7192,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="43" t="s">
         <v>170</v>
       </c>
@@ -7466,7 +7204,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -7476,7 +7214,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="43" t="s">
         <v>177</v>
       </c>
@@ -7490,7 +7228,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="2:12" ht="28.5">
+    <row r="24" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" s="43" t="s">
         <v>171</v>
       </c>
@@ -7504,7 +7242,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="45"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="43" t="s">
         <v>179</v>
       </c>
@@ -7516,7 +7254,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="43" t="s">
         <v>169</v>
       </c>
@@ -7530,7 +7268,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="54" t="s">
         <v>194</v>
       </c>
@@ -7544,7 +7282,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="45"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="48"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
@@ -7554,7 +7292,7 @@
       <c r="H28" s="44"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="49"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -7564,7 +7302,7 @@
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="49"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -7574,7 +7312,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="45"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -7584,7 +7322,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="45"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" s="50"/>
       <c r="C32" s="51"/>
       <c r="D32" s="52" t="s">
@@ -7598,7 +7336,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="53"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="40" t="s">
         <v>166</v>
       </c>
@@ -7621,7 +7359,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="43" t="s">
         <v>180</v>
       </c>
@@ -7636,7 +7374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="43" t="s">
         <v>170</v>
       </c>
@@ -7648,7 +7386,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="45"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="43"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
@@ -7658,7 +7396,7 @@
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="43" t="s">
         <v>177</v>
       </c>
@@ -7672,7 +7410,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="2:12" ht="28.5">
+    <row r="40" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B40" s="43" t="s">
         <v>171</v>
       </c>
@@ -7686,7 +7424,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="45"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="43" t="s">
         <v>179</v>
       </c>
@@ -7698,7 +7436,7 @@
       <c r="H41" s="44"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="43" t="s">
         <v>169</v>
       </c>
@@ -7712,7 +7450,7 @@
       <c r="H42" s="44"/>
       <c r="I42" s="45"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="54" t="s">
         <v>194</v>
       </c>
@@ -7726,7 +7464,7 @@
       <c r="H43" s="47"/>
       <c r="I43" s="45"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="48"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
@@ -7736,7 +7474,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="45"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="49"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -7746,7 +7484,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="45"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="49"/>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -7756,7 +7494,7 @@
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -7766,7 +7504,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="50"/>
       <c r="C48" s="51"/>
       <c r="D48" s="52" t="s">
@@ -7780,7 +7518,7 @@
       <c r="H48" s="51"/>
       <c r="I48" s="53"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52" s="40" t="s">
         <v>166</v>
       </c>
@@ -7801,7 +7539,7 @@
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" s="43" t="s">
         <v>180</v>
       </c>
@@ -7816,7 +7554,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" s="43" t="s">
         <v>170</v>
       </c>
@@ -7828,7 +7566,7 @@
       <c r="H54" s="44"/>
       <c r="I54" s="45"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -7838,21 +7576,21 @@
       <c r="H55" s="44"/>
       <c r="I55" s="45"/>
     </row>
-    <row r="56" spans="2:12" ht="37.5" customHeight="1">
+    <row r="56" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C56" s="44"/>
-      <c r="D56" s="145" t="s">
+      <c r="D56" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
       <c r="H56" s="44"/>
       <c r="I56" s="45"/>
     </row>
-    <row r="57" spans="2:12" ht="28.5">
+    <row r="57" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B57" s="43" t="s">
         <v>171</v>
       </c>
@@ -7866,7 +7604,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="45"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" s="43" t="s">
         <v>179</v>
       </c>
@@ -7878,7 +7616,7 @@
       <c r="H58" s="44"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="43" t="s">
         <v>169</v>
       </c>
@@ -7892,7 +7630,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" s="54"/>
       <c r="C60" s="44"/>
       <c r="D60" s="47"/>
@@ -7902,7 +7640,7 @@
       <c r="H60" s="47"/>
       <c r="I60" s="45"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" s="48"/>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
@@ -7912,7 +7650,7 @@
       <c r="H61" s="44"/>
       <c r="I61" s="45"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62" s="49"/>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -7922,7 +7660,7 @@
       <c r="H62" s="44"/>
       <c r="I62" s="45"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63" s="49"/>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -7932,7 +7670,7 @@
       <c r="H63" s="44"/>
       <c r="I63" s="45"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -7942,7 +7680,7 @@
       <c r="H64" s="44"/>
       <c r="I64" s="45"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B65" s="50"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52" t="s">
@@ -7956,7 +7694,7 @@
       <c r="H65" s="51"/>
       <c r="I65" s="53"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B68" s="40" t="s">
         <v>166</v>
       </c>
@@ -7979,7 +7717,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B69" s="43" t="s">
         <v>180</v>
       </c>
@@ -7994,7 +7732,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B70" s="43" t="s">
         <v>170</v>
       </c>
@@ -8009,7 +7747,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B71" s="43"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
@@ -8019,21 +7757,21 @@
       <c r="H71" s="44"/>
       <c r="I71" s="45"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B72" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C72" s="44"/>
-      <c r="D72" s="145" t="s">
+      <c r="D72" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="146"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="146"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="144"/>
+      <c r="G72" s="144"/>
       <c r="H72" s="44"/>
       <c r="I72" s="45"/>
     </row>
-    <row r="73" spans="2:12" ht="28.5">
+    <row r="73" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B73" s="43" t="s">
         <v>171</v>
       </c>
@@ -8047,7 +7785,7 @@
       <c r="H73" s="44"/>
       <c r="I73" s="45"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B74" s="43" t="s">
         <v>179</v>
       </c>
@@ -8059,7 +7797,7 @@
       <c r="H74" s="44"/>
       <c r="I74" s="45"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B75" s="43" t="s">
         <v>169</v>
       </c>
@@ -8073,7 +7811,7 @@
       <c r="H75" s="44"/>
       <c r="I75" s="45"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B76" s="54" t="s">
         <v>206</v>
       </c>
@@ -8085,7 +7823,7 @@
       <c r="H76" s="47"/>
       <c r="I76" s="45"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B77" s="48" t="s">
         <v>207</v>
       </c>
@@ -8097,7 +7835,7 @@
       <c r="H77" s="44"/>
       <c r="I77" s="45"/>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B78" s="49"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -8107,7 +7845,7 @@
       <c r="H78" s="44"/>
       <c r="I78" s="45"/>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B79" s="49"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -8117,7 +7855,7 @@
       <c r="H79" s="44"/>
       <c r="I79" s="45"/>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B80" s="43"/>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
@@ -8127,7 +7865,7 @@
       <c r="H80" s="44"/>
       <c r="I80" s="45"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B81" s="50"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52" t="s">
@@ -8141,7 +7879,7 @@
       <c r="H81" s="51"/>
       <c r="I81" s="53"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B84" s="40" t="s">
         <v>166</v>
       </c>
@@ -8167,7 +7905,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B85" s="43" t="s">
         <v>180</v>
       </c>
@@ -8185,7 +7923,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B86" s="43" t="s">
         <v>170</v>
       </c>
@@ -8203,7 +7941,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -8219,24 +7957,24 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="50.25" customHeight="1">
+    <row r="88" spans="2:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C88" s="44"/>
-      <c r="D88" s="145" t="s">
+      <c r="D88" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
-      <c r="G88" s="145"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="143"/>
       <c r="H88" s="44"/>
       <c r="I88" s="44"/>
       <c r="J88" s="44"/>
       <c r="K88" s="44"/>
       <c r="L88" s="45"/>
     </row>
-    <row r="89" spans="2:15" ht="28.5">
+    <row r="89" spans="2:15" ht="27" x14ac:dyDescent="0.15">
       <c r="B89" s="43" t="s">
         <v>171</v>
       </c>
@@ -8253,7 +7991,7 @@
       <c r="K89" s="44"/>
       <c r="L89" s="45"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B90" s="43" t="s">
         <v>179</v>
       </c>
@@ -8268,7 +8006,7 @@
       <c r="K90" s="44"/>
       <c r="L90" s="45"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B91" s="43" t="s">
         <v>169</v>
       </c>
@@ -8285,7 +8023,7 @@
       <c r="K91" s="44"/>
       <c r="L91" s="45"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B92" s="61" t="s">
         <v>226</v>
       </c>
@@ -8300,7 +8038,7 @@
       <c r="K92" s="44"/>
       <c r="L92" s="45"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B93" s="59" t="s">
         <v>210</v>
       </c>
@@ -8329,56 +8067,56 @@
       <c r="K93" s="44"/>
       <c r="L93" s="45"/>
     </row>
-    <row r="94" spans="2:15" ht="36" customHeight="1">
-      <c r="B94" s="147"/>
-      <c r="C94" s="148"/>
-      <c r="D94" s="148"/>
+    <row r="94" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="154"/>
+      <c r="C94" s="150"/>
+      <c r="D94" s="150"/>
       <c r="E94" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="F94" s="148" t="s">
+      <c r="F94" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="G94" s="148" t="s">
+      <c r="G94" s="150" t="s">
         <v>220</v>
       </c>
-      <c r="H94" s="148" t="s">
+      <c r="H94" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="I94" s="148"/>
+      <c r="I94" s="150"/>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
       <c r="L94" s="45"/>
     </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="147"/>
-      <c r="C95" s="148"/>
-      <c r="D95" s="148"/>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B95" s="154"/>
+      <c r="C95" s="150"/>
+      <c r="D95" s="150"/>
       <c r="E95" s="55"/>
-      <c r="F95" s="148"/>
-      <c r="G95" s="148"/>
-      <c r="H95" s="149"/>
-      <c r="I95" s="148"/>
+      <c r="F95" s="150"/>
+      <c r="G95" s="150"/>
+      <c r="H95" s="151"/>
+      <c r="I95" s="150"/>
       <c r="J95" s="44"/>
       <c r="K95" s="44"/>
       <c r="L95" s="45"/>
     </row>
-    <row r="96" spans="2:15" ht="84">
-      <c r="B96" s="147"/>
-      <c r="C96" s="148"/>
-      <c r="D96" s="148"/>
+    <row r="96" spans="2:15" ht="72" x14ac:dyDescent="0.15">
+      <c r="B96" s="154"/>
+      <c r="C96" s="150"/>
+      <c r="D96" s="150"/>
       <c r="E96" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="F96" s="148"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="149"/>
-      <c r="I96" s="148"/>
+      <c r="F96" s="150"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="150"/>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
       <c r="L96" s="45"/>
     </row>
-    <row r="97" spans="2:14" ht="108">
+    <row r="97" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B97" s="58"/>
       <c r="C97" s="55"/>
       <c r="D97" s="55"/>
@@ -8395,7 +8133,7 @@
       <c r="K97" s="44"/>
       <c r="L97" s="45"/>
     </row>
-    <row r="98" spans="2:14" ht="15.75" thickBot="1">
+    <row r="98" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B98" s="58" t="s">
         <v>227</v>
       </c>
@@ -8410,7 +8148,7 @@
       <c r="K98" s="44"/>
       <c r="L98" s="45"/>
     </row>
-    <row r="99" spans="2:14" ht="15.75" thickBot="1">
+    <row r="99" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="63" t="s">
         <v>93</v>
       </c>
@@ -8447,8 +8185,8 @@
       <c r="M99" s="44"/>
       <c r="N99" s="44"/>
     </row>
-    <row r="100" spans="2:14" ht="24">
-      <c r="B100" s="150"/>
+    <row r="100" spans="2:14" ht="24" x14ac:dyDescent="0.15">
+      <c r="B100" s="152"/>
       <c r="C100" s="139" t="s">
         <v>228</v>
       </c>
@@ -8456,7 +8194,7 @@
         <v>103</v>
       </c>
       <c r="E100" s="37"/>
-      <c r="F100" s="142"/>
+      <c r="F100" s="137"/>
       <c r="G100" s="24" t="s">
         <v>104</v>
       </c>
@@ -8466,30 +8204,30 @@
       <c r="I100" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
-      <c r="L100" s="155"/>
+      <c r="J100" s="137"/>
+      <c r="K100" s="137"/>
+      <c r="L100" s="148"/>
       <c r="M100" s="44"/>
       <c r="N100" s="44"/>
     </row>
-    <row r="101" spans="2:14" ht="72.75" thickBot="1">
-      <c r="B101" s="151"/>
-      <c r="C101" s="141"/>
-      <c r="D101" s="141"/>
+    <row r="101" spans="2:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="153"/>
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
       <c r="E101" s="38"/>
-      <c r="F101" s="143"/>
+      <c r="F101" s="138"/>
       <c r="G101" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H101" s="141"/>
-      <c r="I101" s="141"/>
-      <c r="J101" s="143"/>
-      <c r="K101" s="143"/>
-      <c r="L101" s="156"/>
+      <c r="H101" s="140"/>
+      <c r="I101" s="140"/>
+      <c r="J101" s="138"/>
+      <c r="K101" s="138"/>
+      <c r="L101" s="149"/>
       <c r="M101" s="44"/>
       <c r="N101" s="44"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B102" s="58"/>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
@@ -8502,7 +8240,7 @@
       <c r="K102" s="44"/>
       <c r="L102" s="45"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B103" s="54"/>
       <c r="C103" s="44"/>
       <c r="D103" s="47"/>
@@ -8515,7 +8253,7 @@
       <c r="K103" s="44"/>
       <c r="L103" s="45"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" s="65" t="s">
         <v>230</v>
       </c>
@@ -8538,7 +8276,7 @@
       <c r="K104" s="44"/>
       <c r="L104" s="45"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="49"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -8551,7 +8289,7 @@
       <c r="K105" s="44"/>
       <c r="L105" s="45"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="49"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -8564,7 +8302,7 @@
       <c r="K106" s="44"/>
       <c r="L106" s="45"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -8577,7 +8315,7 @@
       <c r="K107" s="44"/>
       <c r="L107" s="45"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B108" s="50"/>
       <c r="C108" s="51"/>
       <c r="D108" s="52" t="s">
@@ -8594,7 +8332,7 @@
       <c r="K108" s="51"/>
       <c r="L108" s="53"/>
     </row>
-    <row r="113" spans="2:12">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B113" s="40" t="s">
         <v>166</v>
       </c>
@@ -8617,7 +8355,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="2:12">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B114" s="43" t="s">
         <v>180</v>
       </c>
@@ -8632,7 +8370,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B115" s="43" t="s">
         <v>170</v>
       </c>
@@ -8647,7 +8385,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B116" s="43"/>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
@@ -8657,21 +8395,21 @@
       <c r="H116" s="44"/>
       <c r="I116" s="45"/>
     </row>
-    <row r="117" spans="2:12">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B117" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C117" s="44"/>
-      <c r="D117" s="145" t="s">
+      <c r="D117" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="E117" s="146"/>
-      <c r="F117" s="146"/>
-      <c r="G117" s="146"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="144"/>
+      <c r="G117" s="144"/>
       <c r="H117" s="44"/>
       <c r="I117" s="45"/>
     </row>
-    <row r="118" spans="2:12" ht="28.5">
+    <row r="118" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B118" s="43" t="s">
         <v>171</v>
       </c>
@@ -8685,7 +8423,7 @@
       <c r="H118" s="44"/>
       <c r="I118" s="45"/>
     </row>
-    <row r="119" spans="2:12">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B119" s="43" t="s">
         <v>179</v>
       </c>
@@ -8697,7 +8435,7 @@
       <c r="H119" s="44"/>
       <c r="I119" s="45"/>
     </row>
-    <row r="120" spans="2:12">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B120" s="43" t="s">
         <v>169</v>
       </c>
@@ -8711,7 +8449,7 @@
       <c r="H120" s="44"/>
       <c r="I120" s="45"/>
     </row>
-    <row r="121" spans="2:12">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B121" s="54"/>
       <c r="C121" s="44"/>
       <c r="D121" s="47"/>
@@ -8721,7 +8459,7 @@
       <c r="H121" s="47"/>
       <c r="I121" s="45"/>
     </row>
-    <row r="122" spans="2:12">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B122" s="48"/>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
@@ -8731,7 +8469,7 @@
       <c r="H122" s="44"/>
       <c r="I122" s="45"/>
     </row>
-    <row r="123" spans="2:12">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B123" s="49"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -8741,7 +8479,7 @@
       <c r="H123" s="44"/>
       <c r="I123" s="45"/>
     </row>
-    <row r="124" spans="2:12">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B124" s="65" t="s">
         <v>233</v>
       </c>
@@ -8761,7 +8499,7 @@
       <c r="H124" s="44"/>
       <c r="I124" s="45"/>
     </row>
-    <row r="125" spans="2:12">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B125" s="43"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -8771,7 +8509,7 @@
       <c r="H125" s="44"/>
       <c r="I125" s="45"/>
     </row>
-    <row r="126" spans="2:12">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B126" s="50"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52" t="s">
@@ -8785,7 +8523,7 @@
       <c r="H126" s="51"/>
       <c r="I126" s="53"/>
     </row>
-    <row r="130" spans="2:12">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B130" s="40" t="s">
         <v>166</v>
       </c>
@@ -8806,7 +8544,7 @@
       <c r="K130" s="39"/>
       <c r="L130" s="39"/>
     </row>
-    <row r="131" spans="2:12">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B131" s="43" t="s">
         <v>180</v>
       </c>
@@ -8821,7 +8559,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="2:12">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B132" s="43" t="s">
         <v>170</v>
       </c>
@@ -8834,7 +8572,7 @@
       <c r="I132" s="45"/>
       <c r="L132" s="39"/>
     </row>
-    <row r="133" spans="2:12">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B133" s="43"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
@@ -8844,21 +8582,21 @@
       <c r="H133" s="44"/>
       <c r="I133" s="45"/>
     </row>
-    <row r="134" spans="2:12">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B134" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C134" s="44"/>
-      <c r="D134" s="145" t="s">
+      <c r="D134" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="E134" s="146"/>
-      <c r="F134" s="146"/>
-      <c r="G134" s="146"/>
-      <c r="H134" s="152"/>
-      <c r="I134" s="153"/>
-    </row>
-    <row r="135" spans="2:12" ht="28.5">
+      <c r="E134" s="144"/>
+      <c r="F134" s="144"/>
+      <c r="G134" s="144"/>
+      <c r="H134" s="145"/>
+      <c r="I134" s="146"/>
+    </row>
+    <row r="135" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B135" s="43" t="s">
         <v>171</v>
       </c>
@@ -8872,7 +8610,7 @@
       <c r="H135" s="44"/>
       <c r="I135" s="45"/>
     </row>
-    <row r="136" spans="2:12">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B136" s="43" t="s">
         <v>179</v>
       </c>
@@ -8884,7 +8622,7 @@
       <c r="H136" s="44"/>
       <c r="I136" s="45"/>
     </row>
-    <row r="137" spans="2:12">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B137" s="43" t="s">
         <v>169</v>
       </c>
@@ -8898,7 +8636,7 @@
       <c r="H137" s="44"/>
       <c r="I137" s="45"/>
     </row>
-    <row r="138" spans="2:12">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B138" s="54"/>
       <c r="C138" s="44"/>
       <c r="D138" s="47"/>
@@ -8908,7 +8646,7 @@
       <c r="H138" s="47"/>
       <c r="I138" s="45"/>
     </row>
-    <row r="139" spans="2:12">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B139" s="48"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
@@ -8918,7 +8656,7 @@
       <c r="H139" s="44"/>
       <c r="I139" s="45"/>
     </row>
-    <row r="140" spans="2:12">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B140" s="49"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
@@ -8928,7 +8666,7 @@
       <c r="H140" s="44"/>
       <c r="I140" s="45"/>
     </row>
-    <row r="141" spans="2:12">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B141" s="65"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
@@ -8938,7 +8676,7 @@
       <c r="H141" s="44"/>
       <c r="I141" s="45"/>
     </row>
-    <row r="142" spans="2:12">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B142" s="43"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
@@ -8948,7 +8686,7 @@
       <c r="H142" s="44"/>
       <c r="I142" s="45"/>
     </row>
-    <row r="143" spans="2:12">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B143" s="50"/>
       <c r="C143" s="51"/>
       <c r="D143" s="52" t="s">
@@ -8962,7 +8700,7 @@
       <c r="H143" s="51"/>
       <c r="I143" s="53"/>
     </row>
-    <row r="146" spans="2:12">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B146" s="40" t="s">
         <v>166</v>
       </c>
@@ -8985,7 +8723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="2:12">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B147" s="43" t="s">
         <v>180</v>
       </c>
@@ -9000,7 +8738,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="2:12">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B148" s="43" t="s">
         <v>170</v>
       </c>
@@ -9013,7 +8751,7 @@
       <c r="I148" s="45"/>
       <c r="L148" s="39"/>
     </row>
-    <row r="149" spans="2:12">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B149" s="43"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -9023,21 +8761,21 @@
       <c r="H149" s="44"/>
       <c r="I149" s="45"/>
     </row>
-    <row r="150" spans="2:12">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B150" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C150" s="44"/>
-      <c r="D150" s="145" t="s">
+      <c r="D150" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="E150" s="146"/>
-      <c r="F150" s="146"/>
-      <c r="G150" s="146"/>
-      <c r="H150" s="152"/>
-      <c r="I150" s="153"/>
-    </row>
-    <row r="151" spans="2:12">
+      <c r="E150" s="144"/>
+      <c r="F150" s="144"/>
+      <c r="G150" s="144"/>
+      <c r="H150" s="145"/>
+      <c r="I150" s="146"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B151" s="43" t="s">
         <v>245</v>
       </c>
@@ -9049,7 +8787,7 @@
       <c r="H151" s="44"/>
       <c r="I151" s="45"/>
     </row>
-    <row r="152" spans="2:12">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B152" s="43" t="s">
         <v>179</v>
       </c>
@@ -9063,7 +8801,7 @@
       <c r="H152" s="44"/>
       <c r="I152" s="45"/>
     </row>
-    <row r="153" spans="2:12" ht="15.75" thickBot="1">
+    <row r="153" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B153" s="43" t="s">
         <v>169</v>
       </c>
@@ -9077,7 +8815,7 @@
       <c r="H153" s="44"/>
       <c r="I153" s="45"/>
     </row>
-    <row r="154" spans="2:12" ht="36.75" thickBot="1">
+    <row r="154" spans="2:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B154" s="67" t="s">
         <v>239</v>
       </c>
@@ -9095,7 +8833,7 @@
       <c r="H154" s="47"/>
       <c r="I154" s="45"/>
     </row>
-    <row r="155" spans="2:12" ht="15.75" thickBot="1">
+    <row r="155" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B155" s="69"/>
       <c r="C155" s="72" t="s">
         <v>241</v>
@@ -9109,7 +8847,7 @@
       <c r="H155" s="44"/>
       <c r="I155" s="45"/>
     </row>
-    <row r="156" spans="2:12" ht="15.75" thickBot="1">
+    <row r="156" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B156" s="69"/>
       <c r="C156" s="72" t="s">
         <v>242</v>
@@ -9121,7 +8859,7 @@
       <c r="H156" s="44"/>
       <c r="I156" s="45"/>
     </row>
-    <row r="157" spans="2:12" ht="15.75" thickBot="1">
+    <row r="157" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B157" s="69"/>
       <c r="C157" s="72" t="s">
         <v>243</v>
@@ -9133,7 +8871,7 @@
       <c r="H157" s="44"/>
       <c r="I157" s="45"/>
     </row>
-    <row r="158" spans="2:12" ht="15.75" thickBot="1">
+    <row r="158" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B158" s="69"/>
       <c r="C158" s="72" t="s">
         <v>244</v>
@@ -9145,7 +8883,7 @@
       <c r="H158" s="44"/>
       <c r="I158" s="45"/>
     </row>
-    <row r="159" spans="2:12">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B159" s="50"/>
       <c r="C159" s="51"/>
       <c r="D159" s="52" t="s">
@@ -9159,7 +8897,7 @@
       <c r="H159" s="51"/>
       <c r="I159" s="53"/>
     </row>
-    <row r="163" spans="2:12">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B163" s="40" t="s">
         <v>166</v>
       </c>
@@ -9182,7 +8920,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="2:12">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B164" s="43" t="s">
         <v>180</v>
       </c>
@@ -9197,7 +8935,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="2:12">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B165" s="43" t="s">
         <v>170</v>
       </c>
@@ -9210,7 +8948,7 @@
       <c r="I165" s="45"/>
       <c r="L165" s="39"/>
     </row>
-    <row r="166" spans="2:12">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B166" s="43"/>
       <c r="C166" s="44"/>
       <c r="D166" s="44"/>
@@ -9220,21 +8958,21 @@
       <c r="H166" s="44"/>
       <c r="I166" s="45"/>
     </row>
-    <row r="167" spans="2:12">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B167" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C167" s="44"/>
-      <c r="D167" s="145" t="s">
+      <c r="D167" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="E167" s="146"/>
-      <c r="F167" s="146"/>
-      <c r="G167" s="146"/>
-      <c r="H167" s="152"/>
-      <c r="I167" s="153"/>
-    </row>
-    <row r="168" spans="2:12">
+      <c r="E167" s="144"/>
+      <c r="F167" s="144"/>
+      <c r="G167" s="144"/>
+      <c r="H167" s="145"/>
+      <c r="I167" s="146"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B168" s="43" t="s">
         <v>245</v>
       </c>
@@ -9246,7 +8984,7 @@
       <c r="H168" s="44"/>
       <c r="I168" s="45"/>
     </row>
-    <row r="169" spans="2:12">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B169" s="43" t="s">
         <v>179</v>
       </c>
@@ -9260,7 +8998,7 @@
       <c r="H169" s="44"/>
       <c r="I169" s="45"/>
     </row>
-    <row r="170" spans="2:12" ht="15.75" thickBot="1">
+    <row r="170" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B170" s="43" t="s">
         <v>169</v>
       </c>
@@ -9274,7 +9012,7 @@
       <c r="H170" s="44"/>
       <c r="I170" s="45"/>
     </row>
-    <row r="171" spans="2:12" ht="15.75" thickBot="1">
+    <row r="171" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B171" s="67" t="s">
         <v>239</v>
       </c>
@@ -9292,7 +9030,7 @@
       <c r="H171" s="47"/>
       <c r="I171" s="45"/>
     </row>
-    <row r="172" spans="2:12" ht="15.75" thickBot="1">
+    <row r="172" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B172" s="69"/>
       <c r="C172" s="70" t="s">
         <v>241</v>
@@ -9310,7 +9048,7 @@
       </c>
       <c r="I172" s="45"/>
     </row>
-    <row r="173" spans="2:12" ht="15.75" thickBot="1">
+    <row r="173" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B173" s="69"/>
       <c r="C173" s="70" t="s">
         <v>242</v>
@@ -9326,7 +9064,7 @@
       <c r="H173" s="44"/>
       <c r="I173" s="45"/>
     </row>
-    <row r="174" spans="2:12" ht="15.75" thickBot="1">
+    <row r="174" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B174" s="69"/>
       <c r="C174" s="70" t="s">
         <v>243</v>
@@ -9338,7 +9076,7 @@
       <c r="H174" s="44"/>
       <c r="I174" s="45"/>
     </row>
-    <row r="175" spans="2:12" ht="15.75" thickBot="1">
+    <row r="175" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B175" s="69"/>
       <c r="C175" s="72" t="s">
         <v>244</v>
@@ -9350,7 +9088,7 @@
       <c r="H175" s="44"/>
       <c r="I175" s="45"/>
     </row>
-    <row r="176" spans="2:12">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B176" s="50"/>
       <c r="C176" s="51"/>
       <c r="D176" s="52" t="s">
@@ -9364,7 +9102,7 @@
       <c r="H176" s="51"/>
       <c r="I176" s="53"/>
     </row>
-    <row r="182" spans="2:12">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B182" s="40" t="s">
         <v>166</v>
       </c>
@@ -9387,7 +9125,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="2:12">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B183" s="43" t="s">
         <v>180</v>
       </c>
@@ -9402,7 +9140,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="2:12">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B184" s="43" t="s">
         <v>170</v>
       </c>
@@ -9417,7 +9155,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="185" spans="2:12">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B185" s="43"/>
       <c r="C185" s="44"/>
       <c r="D185" s="44"/>
@@ -9427,21 +9165,21 @@
       <c r="H185" s="44"/>
       <c r="I185" s="45"/>
     </row>
-    <row r="186" spans="2:12">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B186" s="43" t="s">
         <v>177</v>
       </c>
       <c r="C186" s="44"/>
-      <c r="D186" s="145" t="s">
+      <c r="D186" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="E186" s="145"/>
-      <c r="F186" s="145"/>
-      <c r="G186" s="145"/>
-      <c r="H186" s="154"/>
-      <c r="I186" s="153"/>
-    </row>
-    <row r="187" spans="2:12" ht="28.5">
+      <c r="E186" s="143"/>
+      <c r="F186" s="143"/>
+      <c r="G186" s="143"/>
+      <c r="H186" s="147"/>
+      <c r="I186" s="146"/>
+    </row>
+    <row r="187" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B187" s="43" t="s">
         <v>171</v>
       </c>
@@ -9455,7 +9193,7 @@
       <c r="H187" s="44"/>
       <c r="I187" s="45"/>
     </row>
-    <row r="188" spans="2:12">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B188" s="43" t="s">
         <v>179</v>
       </c>
@@ -9467,7 +9205,7 @@
       <c r="H188" s="44"/>
       <c r="I188" s="45"/>
     </row>
-    <row r="189" spans="2:12">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B189" s="43" t="s">
         <v>169</v>
       </c>
@@ -9481,7 +9219,7 @@
       <c r="H189" s="44"/>
       <c r="I189" s="45"/>
     </row>
-    <row r="190" spans="2:12">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B190" s="75" t="s">
         <v>231</v>
       </c>
@@ -9499,7 +9237,7 @@
       <c r="H190" s="47"/>
       <c r="I190" s="45"/>
     </row>
-    <row r="191" spans="2:12">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B191" s="48"/>
       <c r="C191" s="44"/>
       <c r="D191" s="44"/>
@@ -9509,7 +9247,7 @@
       <c r="H191" s="44"/>
       <c r="I191" s="45"/>
     </row>
-    <row r="192" spans="2:12">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B192" s="49"/>
       <c r="C192" s="44"/>
       <c r="D192" s="44"/>
@@ -9519,7 +9257,7 @@
       <c r="H192" s="44"/>
       <c r="I192" s="45"/>
     </row>
-    <row r="193" spans="2:9">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B193" s="65"/>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
@@ -9529,7 +9267,7 @@
       <c r="H193" s="44"/>
       <c r="I193" s="45"/>
     </row>
-    <row r="194" spans="2:9">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B194" s="43"/>
       <c r="C194" s="44"/>
       <c r="D194" s="44"/>
@@ -9539,7 +9277,7 @@
       <c r="H194" s="44"/>
       <c r="I194" s="45"/>
     </row>
-    <row r="195" spans="2:9">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B195" s="50"/>
       <c r="C195" s="51"/>
       <c r="D195" s="52" t="s">
@@ -9555,6 +9293,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
     <mergeCell ref="D167:I167"/>
     <mergeCell ref="D186:I186"/>
     <mergeCell ref="K100:K101"/>
@@ -9563,22 +9317,6 @@
     <mergeCell ref="D134:I134"/>
     <mergeCell ref="D150:I150"/>
     <mergeCell ref="J100:J101"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9595,19 +9333,19 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:19">
+    <row r="2" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B3" s="83" t="s">
         <v>273</v>
       </c>
@@ -9631,7 +9369,7 @@
       <c r="R3" s="84"/>
       <c r="S3" s="85"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" s="86"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -9649,7 +9387,7 @@
       <c r="R4" s="44"/>
       <c r="S4" s="87"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B5" s="97" t="s">
         <v>274</v>
       </c>
@@ -9673,7 +9411,7 @@
       <c r="R5" s="44"/>
       <c r="S5" s="87"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6" s="86"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -9697,7 +9435,7 @@
       </c>
       <c r="S6" s="87"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7" s="86"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -9715,7 +9453,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="87"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8" s="86"/>
       <c r="C8" s="96"/>
       <c r="D8" s="95" t="s">
@@ -9739,7 +9477,7 @@
       <c r="R8" s="44"/>
       <c r="S8" s="87"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9" s="86"/>
       <c r="C9" s="93" t="s">
         <v>280</v>
@@ -9771,7 +9509,7 @@
       </c>
       <c r="S9" s="87"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10" s="86"/>
       <c r="C10" s="93" t="s">
         <v>280</v>
@@ -9797,7 +9535,7 @@
       <c r="R10" s="44"/>
       <c r="S10" s="87"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11" s="86"/>
       <c r="C11" s="93" t="s">
         <v>280</v>
@@ -9823,7 +9561,7 @@
       <c r="R11" s="44"/>
       <c r="S11" s="87"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" s="86"/>
       <c r="C12" s="93" t="s">
         <v>280</v>
@@ -9853,7 +9591,7 @@
       <c r="R12" s="91"/>
       <c r="S12" s="87"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" s="86"/>
       <c r="C13" s="93"/>
       <c r="D13" s="91"/>
@@ -9871,7 +9609,7 @@
       <c r="R13" s="44"/>
       <c r="S13" s="87"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14" s="86"/>
       <c r="C14" s="93"/>
       <c r="D14" s="91"/>
@@ -9889,7 +9627,7 @@
       <c r="R14" s="44"/>
       <c r="S14" s="87"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15" s="86"/>
       <c r="C15" s="93"/>
       <c r="D15" s="91"/>
@@ -9911,7 +9649,7 @@
       <c r="R15" s="91"/>
       <c r="S15" s="87"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16" s="86"/>
       <c r="C16" s="93"/>
       <c r="D16" s="91"/>
@@ -9929,7 +9667,7 @@
       <c r="R16" s="44"/>
       <c r="S16" s="87"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="86"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
@@ -9947,7 +9685,7 @@
       <c r="R17" s="44"/>
       <c r="S17" s="87"/>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="86"/>
       <c r="C18" s="93"/>
       <c r="D18" s="91"/>
@@ -9967,7 +9705,7 @@
       <c r="R18" s="44"/>
       <c r="S18" s="87"/>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="86"/>
       <c r="C19" s="93"/>
       <c r="D19" s="91"/>
@@ -9989,7 +9727,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20" s="86"/>
       <c r="C20" s="93"/>
       <c r="D20" s="91"/>
@@ -10007,7 +9745,7 @@
       <c r="R20" s="44"/>
       <c r="S20" s="87"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1">
+    <row r="21" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="86"/>
       <c r="C21" s="93"/>
       <c r="D21" s="91"/>
@@ -10025,7 +9763,7 @@
       <c r="R21" s="89"/>
       <c r="S21" s="90"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22" s="86"/>
       <c r="C22" s="93"/>
       <c r="D22" s="91"/>
@@ -10042,7 +9780,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="86"/>
       <c r="C23" s="93"/>
       <c r="D23" s="91"/>
@@ -10056,7 +9794,7 @@
       <c r="M23" s="44"/>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="86"/>
       <c r="C24" s="93"/>
       <c r="D24" s="91"/>
@@ -10070,7 +9808,7 @@
       <c r="M24" s="44"/>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="86"/>
       <c r="C25" s="93"/>
       <c r="D25" s="91"/>
@@ -10084,7 +9822,7 @@
       <c r="M25" s="44"/>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" thickBot="1">
+    <row r="26" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -10113,15 +9851,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -10130,12 +9868,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -10155,7 +9893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -10175,7 +9913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -10195,7 +9933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -10215,7 +9953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -10235,7 +9973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -10255,7 +9993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -10275,7 +10013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -10295,7 +10033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -10315,7 +10053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -10348,23 +10086,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
+    <col min="5" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="39.75" customWidth="1"/>
+    <col min="11" max="12" width="14.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="15.75" thickBot="1"/>
-    <row r="6" spans="3:13">
+    <row r="5" spans="3:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C6" s="83" t="s">
         <v>304</v>
       </c>
@@ -10380,7 +10118,7 @@
       <c r="L6" s="99"/>
       <c r="M6" s="85"/>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C7" s="86"/>
       <c r="D7" s="100"/>
       <c r="E7" s="44"/>
@@ -10402,7 +10140,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C8" s="86"/>
       <c r="D8" s="100"/>
       <c r="E8" s="44"/>
@@ -10424,7 +10162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C9" s="86"/>
       <c r="D9" s="100"/>
       <c r="E9" s="44"/>
@@ -10444,7 +10182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C10" s="86"/>
       <c r="D10" s="100"/>
       <c r="E10" s="44"/>
@@ -10458,7 +10196,7 @@
       <c r="L10" s="100"/>
       <c r="M10" s="102"/>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C11" s="105" t="s">
         <v>314</v>
       </c>
@@ -10477,7 +10215,7 @@
       <c r="L11" s="100"/>
       <c r="M11" s="102"/>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C12" s="105" t="s">
         <v>316</v>
       </c>
@@ -10495,7 +10233,7 @@
       <c r="L12" s="100"/>
       <c r="M12" s="102"/>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C13" s="105" t="s">
         <v>49</v>
       </c>
@@ -10513,7 +10251,7 @@
       <c r="L13" s="100"/>
       <c r="M13" s="102"/>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C14" s="105" t="s">
         <v>319</v>
       </c>
@@ -10531,7 +10269,7 @@
       <c r="L14" s="100"/>
       <c r="M14" s="102"/>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C15" s="105" t="s">
         <v>36</v>
       </c>
@@ -10549,7 +10287,7 @@
       <c r="L15" s="100"/>
       <c r="M15" s="102"/>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C16" s="86"/>
       <c r="D16" s="100"/>
       <c r="E16" s="44"/>
@@ -10563,7 +10301,7 @@
       <c r="L16" s="100"/>
       <c r="M16" s="102"/>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="86"/>
       <c r="D17" s="100"/>
       <c r="E17" s="44"/>
@@ -10579,7 +10317,7 @@
       <c r="L17" s="100"/>
       <c r="M17" s="102"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C18" s="86"/>
       <c r="D18" s="100"/>
       <c r="E18" s="44"/>
@@ -10593,7 +10331,7 @@
       <c r="L18" s="100"/>
       <c r="M18" s="102"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C19" s="86"/>
       <c r="D19" s="100"/>
       <c r="E19" s="44"/>
@@ -10615,7 +10353,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="86"/>
       <c r="D20" s="100"/>
       <c r="E20" s="44"/>
@@ -10635,7 +10373,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="15.75" thickBot="1">
+    <row r="21" spans="3:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C21" s="88"/>
       <c r="D21" s="111"/>
       <c r="E21" s="89"/>
@@ -10647,8 +10385,8 @@
       <c r="L21" s="111"/>
       <c r="M21" s="112"/>
     </row>
-    <row r="25" spans="3:13" ht="15.75" thickBot="1"/>
-    <row r="26" spans="3:13">
+    <row r="25" spans="3:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="83" t="s">
         <v>329</v>
       </c>
@@ -10657,35 +10395,35 @@
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C27" s="86"/>
       <c r="D27" s="100"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="87"/>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C28" s="86"/>
       <c r="D28" s="100"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="87"/>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C29" s="86"/>
       <c r="D29" s="100"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="87"/>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C30" s="86"/>
       <c r="D30" s="100"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="87"/>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C31" s="86" t="s">
         <v>316</v>
       </c>
@@ -10696,7 +10434,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="87"/>
     </row>
-    <row r="32" spans="3:13">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C32" s="86" t="s">
         <v>330</v>
       </c>
@@ -10707,7 +10445,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="87"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C33" s="86" t="s">
         <v>39</v>
       </c>
@@ -10718,64 +10456,64 @@
       <c r="F33" s="44"/>
       <c r="G33" s="87"/>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C34" s="86"/>
       <c r="D34" s="100"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="87"/>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C35" s="86"/>
       <c r="D35" s="100"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
       <c r="G35" s="87"/>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="87"/>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C37" s="86"/>
       <c r="D37" s="100"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="87"/>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C38" s="86"/>
       <c r="D38" s="100"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="87"/>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C39" s="86"/>
       <c r="D39" s="100"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="87"/>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C40" s="86"/>
       <c r="D40" s="100"/>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
       <c r="G40" s="87"/>
     </row>
-    <row r="41" spans="3:7" ht="15.75" thickBot="1">
+    <row r="41" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C41" s="88"/>
       <c r="D41" s="111"/>
       <c r="E41" s="89"/>
       <c r="F41" s="89"/>
       <c r="G41" s="90"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" thickBot="1"/>
-    <row r="45" spans="3:7">
+    <row r="44" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C45" s="83" t="s">
         <v>331</v>
       </c>
@@ -10784,35 +10522,35 @@
       <c r="F45" s="84"/>
       <c r="G45" s="85"/>
     </row>
-    <row r="46" spans="3:7">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C46" s="86"/>
       <c r="D46" s="100"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="87"/>
     </row>
-    <row r="47" spans="3:7">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C47" s="86"/>
       <c r="D47" s="100"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="87"/>
     </row>
-    <row r="48" spans="3:7">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C48" s="86"/>
       <c r="D48" s="100"/>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="87"/>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C49" s="86"/>
       <c r="D49" s="100"/>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="87"/>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C50" s="86" t="s">
         <v>316</v>
       </c>
@@ -10823,7 +10561,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="87"/>
     </row>
-    <row r="51" spans="3:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C51" s="86" t="s">
         <v>332</v>
       </c>
@@ -10834,7 +10572,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="87"/>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C52" s="86" t="s">
         <v>333</v>
       </c>
@@ -10845,7 +10583,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="87"/>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C53" s="86" t="s">
         <v>334</v>
       </c>
@@ -10857,14 +10595,14 @@
       <c r="F53" s="44"/>
       <c r="G53" s="87"/>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C54" s="86"/>
       <c r="D54" s="100"/>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="87"/>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C55" s="86" t="s">
         <v>335</v>
       </c>
@@ -10876,7 +10614,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="87"/>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C56" s="86" t="s">
         <v>309</v>
       </c>
@@ -10887,36 +10625,36 @@
       <c r="F56" s="44"/>
       <c r="G56" s="87"/>
     </row>
-    <row r="57" spans="3:7">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C57" s="86"/>
       <c r="D57" s="100"/>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="87"/>
     </row>
-    <row r="58" spans="3:7">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C58" s="86"/>
       <c r="D58" s="100"/>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="87"/>
     </row>
-    <row r="59" spans="3:7">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C59" s="86"/>
       <c r="D59" s="100"/>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="87"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75" thickBot="1">
+    <row r="60" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C60" s="88"/>
       <c r="D60" s="111"/>
       <c r="E60" s="89"/>
       <c r="F60" s="89"/>
       <c r="G60" s="90"/>
     </row>
-    <row r="64" spans="3:7" ht="15.75" thickBot="1"/>
-    <row r="65" spans="3:7">
+    <row r="64" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C65" s="83" t="s">
         <v>336</v>
       </c>
@@ -10925,35 +10663,35 @@
       <c r="F65" s="84"/>
       <c r="G65" s="85"/>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C66" s="86"/>
       <c r="D66" s="100"/>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="87"/>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C67" s="86"/>
       <c r="D67" s="100"/>
       <c r="E67" s="44"/>
       <c r="F67" s="44"/>
       <c r="G67" s="87"/>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C68" s="86"/>
       <c r="D68" s="100"/>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
       <c r="G68" s="87"/>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C69" s="86"/>
       <c r="D69" s="100"/>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
       <c r="G69" s="87"/>
     </row>
-    <row r="70" spans="3:7" ht="15.75" thickBot="1">
+    <row r="70" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C70" s="86" t="s">
         <v>316</v>
       </c>
@@ -10964,7 +10702,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="87"/>
     </row>
-    <row r="71" spans="3:7" ht="15.75" thickBot="1">
+    <row r="71" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C71" s="114" t="s">
         <v>337</v>
       </c>
@@ -10975,7 +10713,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="87"/>
     </row>
-    <row r="72" spans="3:7" ht="15.75" thickBot="1">
+    <row r="72" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C72" s="115" t="s">
         <v>338</v>
       </c>
@@ -10986,7 +10724,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="87"/>
     </row>
-    <row r="73" spans="3:7" ht="15.75" thickBot="1">
+    <row r="73" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C73" s="115" t="s">
         <v>339</v>
       </c>
@@ -10998,57 +10736,57 @@
       <c r="F73" s="44"/>
       <c r="G73" s="87"/>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C74" s="86"/>
       <c r="D74" s="100"/>
       <c r="E74" s="44"/>
       <c r="F74" s="44"/>
       <c r="G74" s="87"/>
     </row>
-    <row r="75" spans="3:7">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C75" s="86"/>
       <c r="D75" s="113"/>
       <c r="E75" s="44"/>
       <c r="F75" s="44"/>
       <c r="G75" s="87"/>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C76" s="86"/>
       <c r="D76" s="108"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="87"/>
     </row>
-    <row r="77" spans="3:7">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C77" s="86"/>
       <c r="D77" s="100"/>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="87"/>
     </row>
-    <row r="78" spans="3:7">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C78" s="86"/>
       <c r="D78" s="100"/>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="87"/>
     </row>
-    <row r="79" spans="3:7">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C79" s="86"/>
       <c r="D79" s="100"/>
       <c r="E79" s="44"/>
       <c r="F79" s="44"/>
       <c r="G79" s="87"/>
     </row>
-    <row r="80" spans="3:7" ht="15.75" thickBot="1">
+    <row r="80" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C80" s="88"/>
       <c r="D80" s="111"/>
       <c r="E80" s="89"/>
       <c r="F80" s="89"/>
       <c r="G80" s="90"/>
     </row>
-    <row r="83" spans="3:7" ht="15.75" thickBot="1"/>
-    <row r="84" spans="3:7">
+    <row r="83" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C84" s="83" t="s">
         <v>340</v>
       </c>
@@ -11057,35 +10795,35 @@
       <c r="F84" s="84"/>
       <c r="G84" s="85"/>
     </row>
-    <row r="85" spans="3:7">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C85" s="86"/>
       <c r="D85" s="100"/>
       <c r="E85" s="44"/>
       <c r="F85" s="44"/>
       <c r="G85" s="87"/>
     </row>
-    <row r="86" spans="3:7">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C86" s="86"/>
       <c r="D86" s="100"/>
       <c r="E86" s="44"/>
       <c r="F86" s="44"/>
       <c r="G86" s="87"/>
     </row>
-    <row r="87" spans="3:7">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C87" s="86"/>
       <c r="D87" s="100"/>
       <c r="E87" s="44"/>
       <c r="F87" s="44"/>
       <c r="G87" s="87"/>
     </row>
-    <row r="88" spans="3:7">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="86"/>
       <c r="D88" s="100"/>
       <c r="E88" s="44"/>
       <c r="F88" s="44"/>
       <c r="G88" s="87"/>
     </row>
-    <row r="89" spans="3:7">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C89" s="86" t="s">
         <v>49</v>
       </c>
@@ -11096,7 +10834,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="87"/>
     </row>
-    <row r="90" spans="3:7">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C90" s="86" t="s">
         <v>332</v>
       </c>
@@ -11107,7 +10845,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="87"/>
     </row>
-    <row r="91" spans="3:7">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C91" s="86" t="s">
         <v>333</v>
       </c>
@@ -11118,7 +10856,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="87"/>
     </row>
-    <row r="92" spans="3:7">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C92" s="86" t="s">
         <v>334</v>
       </c>
@@ -11130,14 +10868,14 @@
       <c r="F92" s="44"/>
       <c r="G92" s="87"/>
     </row>
-    <row r="93" spans="3:7">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C93" s="86"/>
       <c r="D93" s="100"/>
       <c r="E93" s="44"/>
       <c r="F93" s="44"/>
       <c r="G93" s="87"/>
     </row>
-    <row r="94" spans="3:7">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C94" s="86" t="s">
         <v>335</v>
       </c>
@@ -11149,7 +10887,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="87"/>
     </row>
-    <row r="95" spans="3:7">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C95" s="86" t="s">
         <v>309</v>
       </c>
@@ -11160,28 +10898,28 @@
       <c r="F95" s="44"/>
       <c r="G95" s="87"/>
     </row>
-    <row r="96" spans="3:7">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C96" s="86"/>
       <c r="D96" s="100"/>
       <c r="E96" s="44"/>
       <c r="F96" s="44"/>
       <c r="G96" s="87"/>
     </row>
-    <row r="97" spans="3:7">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C97" s="86"/>
       <c r="D97" s="100"/>
       <c r="E97" s="44"/>
       <c r="F97" s="44"/>
       <c r="G97" s="87"/>
     </row>
-    <row r="98" spans="3:7">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C98" s="86"/>
       <c r="D98" s="100"/>
       <c r="E98" s="44"/>
       <c r="F98" s="44"/>
       <c r="G98" s="87"/>
     </row>
-    <row r="99" spans="3:7" ht="15.75" thickBot="1">
+    <row r="99" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C99" s="88"/>
       <c r="D99" s="111"/>
       <c r="E99" s="89"/>
@@ -11203,17 +10941,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="17" width="14.28515625" customWidth="1"/>
+    <col min="3" max="17" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:15">
+    <row r="2" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C3" s="83" t="s">
         <v>304</v>
       </c>
@@ -11231,7 +10969,7 @@
       <c r="N3" s="84"/>
       <c r="O3" s="85"/>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C4" s="86"/>
       <c r="D4" s="100"/>
       <c r="E4" s="44"/>
@@ -11245,7 +10983,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="87"/>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C5" s="86"/>
       <c r="D5" s="100"/>
       <c r="E5" s="44"/>
@@ -11259,7 +10997,7 @@
       <c r="N5" s="44"/>
       <c r="O5" s="87"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C6" s="86"/>
       <c r="D6" s="100"/>
       <c r="E6" s="44"/>
@@ -11273,7 +11011,7 @@
       <c r="N6" s="44"/>
       <c r="O6" s="87"/>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C7" s="86"/>
       <c r="D7" s="100"/>
       <c r="E7" s="44"/>
@@ -11287,7 +11025,7 @@
       <c r="N7" s="44"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C8" s="105" t="s">
         <v>314</v>
       </c>
@@ -11310,7 +11048,7 @@
       <c r="N8" s="44"/>
       <c r="O8" s="87"/>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C9" s="105" t="s">
         <v>316</v>
       </c>
@@ -11332,7 +11070,7 @@
       <c r="N9" s="44"/>
       <c r="O9" s="87"/>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C10" s="105" t="s">
         <v>49</v>
       </c>
@@ -11354,7 +11092,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="87"/>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C11" s="105" t="s">
         <v>319</v>
       </c>
@@ -11377,7 +11115,7 @@
       <c r="N11" s="44"/>
       <c r="O11" s="87"/>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C12" s="105" t="s">
         <v>36</v>
       </c>
@@ -11395,7 +11133,7 @@
       <c r="N12" s="44"/>
       <c r="O12" s="87"/>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C13" s="86"/>
       <c r="D13" s="100"/>
       <c r="E13" s="44"/>
@@ -11414,7 +11152,7 @@
       <c r="N13" s="44"/>
       <c r="O13" s="87"/>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C14" s="86"/>
       <c r="D14" s="100"/>
       <c r="E14" s="44"/>
@@ -11432,7 +11170,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="87"/>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C15" s="86"/>
       <c r="D15" s="100"/>
       <c r="E15" s="44"/>
@@ -11446,7 +11184,7 @@
       <c r="N15" s="44"/>
       <c r="O15" s="87"/>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C16" s="86"/>
       <c r="D16" s="100"/>
       <c r="E16" s="44"/>
@@ -11460,7 +11198,7 @@
       <c r="N16" s="44"/>
       <c r="O16" s="87"/>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C17" s="86"/>
       <c r="D17" s="100"/>
       <c r="E17" s="44"/>
@@ -11474,7 +11212,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="87"/>
     </row>
-    <row r="18" spans="3:15" ht="15.75" thickBot="1">
+    <row r="18" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C18" s="88"/>
       <c r="D18" s="111"/>
       <c r="E18" s="89"/>
@@ -11488,19 +11226,19 @@
       <c r="N18" s="89"/>
       <c r="O18" s="90"/>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:15" ht="15.75" thickBot="1">
+    <row r="22" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C23" s="83" t="s">
         <v>329</v>
       </c>
@@ -11518,7 +11256,7 @@
       <c r="N23" s="84"/>
       <c r="O23" s="85"/>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C24" s="86"/>
       <c r="D24" s="100"/>
       <c r="E24" s="44"/>
@@ -11532,7 +11270,7 @@
       <c r="N24" s="44"/>
       <c r="O24" s="87"/>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C25" s="86"/>
       <c r="D25" s="100"/>
       <c r="E25" s="44"/>
@@ -11546,7 +11284,7 @@
       <c r="N25" s="44"/>
       <c r="O25" s="87"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C26" s="86"/>
       <c r="D26" s="100"/>
       <c r="E26" s="44"/>
@@ -11560,7 +11298,7 @@
       <c r="N26" s="44"/>
       <c r="O26" s="87"/>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C27" s="86"/>
       <c r="D27" s="100"/>
       <c r="E27" s="44"/>
@@ -11574,7 +11312,7 @@
       <c r="N27" s="44"/>
       <c r="O27" s="87"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C28" s="86" t="s">
         <v>316</v>
       </c>
@@ -11596,7 +11334,7 @@
       <c r="N28" s="44"/>
       <c r="O28" s="87"/>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C29" s="86" t="s">
         <v>330</v>
       </c>
@@ -11618,7 +11356,7 @@
       <c r="N29" s="44"/>
       <c r="O29" s="87"/>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C30" s="86" t="s">
         <v>39</v>
       </c>
@@ -11640,7 +11378,7 @@
       <c r="N30" s="44"/>
       <c r="O30" s="87"/>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C31" s="86"/>
       <c r="D31" s="100"/>
       <c r="E31" s="44"/>
@@ -11659,7 +11397,7 @@
       <c r="N31" s="44"/>
       <c r="O31" s="87"/>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C32" s="86"/>
       <c r="D32" s="100"/>
       <c r="E32" s="44"/>
@@ -11673,7 +11411,7 @@
       <c r="N32" s="44"/>
       <c r="O32" s="87"/>
     </row>
-    <row r="33" spans="3:16">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C33" s="86"/>
       <c r="D33" s="100"/>
       <c r="E33" s="44"/>
@@ -11692,7 +11430,7 @@
       <c r="N33" s="44"/>
       <c r="O33" s="87"/>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C34" s="86"/>
       <c r="D34" s="100"/>
       <c r="E34" s="44"/>
@@ -11710,7 +11448,7 @@
       <c r="N34" s="44"/>
       <c r="O34" s="87"/>
     </row>
-    <row r="35" spans="3:16">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C35" s="86"/>
       <c r="D35" s="100"/>
       <c r="E35" s="44"/>
@@ -11724,7 +11462,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="87"/>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="44"/>
@@ -11738,7 +11476,7 @@
       <c r="N36" s="44"/>
       <c r="O36" s="87"/>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C37" s="86"/>
       <c r="D37" s="100"/>
       <c r="E37" s="44"/>
@@ -11752,7 +11490,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="87"/>
     </row>
-    <row r="38" spans="3:16" ht="15.75" thickBot="1">
+    <row r="38" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C38" s="88"/>
       <c r="D38" s="111"/>
       <c r="E38" s="89"/>
@@ -11766,37 +11504,37 @@
       <c r="N38" s="89"/>
       <c r="O38" s="90"/>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D40" s="5"/>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C42" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="158" t="s">
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="N42" s="158"/>
-      <c r="O42" s="159" t="s">
+      <c r="N42" s="156"/>
+      <c r="O42" s="157" t="s">
         <v>326</v>
       </c>
-      <c r="P42" s="159"/>
-    </row>
-    <row r="43" spans="3:16" ht="45">
+      <c r="P42" s="157"/>
+    </row>
+    <row r="43" spans="3:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C43" s="81" t="s">
         <v>307</v>
       </c>
@@ -11840,7 +11578,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="3:16">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C44" s="100" t="s">
         <v>26</v>
       </c>
@@ -11866,7 +11604,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="3:16">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C45" s="100" t="s">
         <v>308</v>
       </c>
@@ -11892,7 +11630,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:16">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C46" s="44" t="s">
         <v>309</v>
       </c>
@@ -11941,19 +11679,19 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="17" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="3" max="17" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="120" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:15">
+    <row r="2" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C3" s="83" t="s">
         <v>304</v>
       </c>
@@ -11971,7 +11709,7 @@
       <c r="N3" s="84"/>
       <c r="O3" s="85"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C4" s="86"/>
       <c r="D4" s="100"/>
       <c r="E4" s="44"/>
@@ -11985,7 +11723,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="87"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C5" s="86"/>
       <c r="D5" s="100"/>
       <c r="E5" s="44"/>
@@ -11999,7 +11737,7 @@
       <c r="N5" s="44"/>
       <c r="O5" s="87"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="86"/>
       <c r="D6" s="100"/>
       <c r="E6" s="44"/>
@@ -12013,7 +11751,7 @@
       <c r="N6" s="44"/>
       <c r="O6" s="87"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C7" s="86"/>
       <c r="D7" s="100"/>
       <c r="E7" s="44"/>
@@ -12027,7 +11765,7 @@
       <c r="N7" s="44"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C8" s="105" t="s">
         <v>314</v>
       </c>
@@ -12050,7 +11788,7 @@
       <c r="N8" s="44"/>
       <c r="O8" s="87"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C9" s="105" t="s">
         <v>316</v>
       </c>
@@ -12072,7 +11810,7 @@
       <c r="N9" s="44"/>
       <c r="O9" s="87"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C10" s="105" t="s">
         <v>49</v>
       </c>
@@ -12094,7 +11832,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="87"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C11" s="105" t="s">
         <v>319</v>
       </c>
@@ -12117,7 +11855,7 @@
       <c r="N11" s="44"/>
       <c r="O11" s="87"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C12" s="105" t="s">
         <v>36</v>
       </c>
@@ -12135,7 +11873,7 @@
       <c r="N12" s="44"/>
       <c r="O12" s="87"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C13" s="86"/>
       <c r="D13" s="100"/>
       <c r="E13" s="44"/>
@@ -12154,7 +11892,7 @@
       <c r="N13" s="44"/>
       <c r="O13" s="87"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C14" s="86"/>
       <c r="D14" s="100"/>
       <c r="E14" s="44"/>
@@ -12172,7 +11910,7 @@
       <c r="N14" s="44"/>
       <c r="O14" s="87"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C15" s="86"/>
       <c r="D15" s="100"/>
       <c r="E15" s="44"/>
@@ -12186,7 +11924,7 @@
       <c r="N15" s="44"/>
       <c r="O15" s="87"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C16" s="86"/>
       <c r="D16" s="100"/>
       <c r="E16" s="44"/>
@@ -12200,7 +11938,7 @@
       <c r="N16" s="44"/>
       <c r="O16" s="87"/>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C17" s="86"/>
       <c r="D17" s="100"/>
       <c r="E17" s="44"/>
@@ -12214,7 +11952,7 @@
       <c r="N17" s="44"/>
       <c r="O17" s="87"/>
     </row>
-    <row r="18" spans="3:15" ht="15.75" thickBot="1">
+    <row r="18" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C18" s="88"/>
       <c r="D18" s="111"/>
       <c r="E18" s="89"/>
@@ -12228,19 +11966,19 @@
       <c r="N18" s="89"/>
       <c r="O18" s="90"/>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:15" ht="15.75" thickBot="1">
+    <row r="22" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C23" s="83" t="s">
         <v>329</v>
       </c>
@@ -12258,7 +11996,7 @@
       <c r="N23" s="84"/>
       <c r="O23" s="85"/>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C24" s="86"/>
       <c r="D24" s="100"/>
       <c r="E24" s="44"/>
@@ -12272,7 +12010,7 @@
       <c r="N24" s="44"/>
       <c r="O24" s="87"/>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C25" s="86"/>
       <c r="D25" s="100"/>
       <c r="E25" s="44"/>
@@ -12286,7 +12024,7 @@
       <c r="N25" s="44"/>
       <c r="O25" s="87"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C26" s="86"/>
       <c r="D26" s="100"/>
       <c r="E26" s="44"/>
@@ -12300,7 +12038,7 @@
       <c r="N26" s="44"/>
       <c r="O26" s="87"/>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C27" s="86"/>
       <c r="D27" s="100"/>
       <c r="E27" s="44"/>
@@ -12314,7 +12052,7 @@
       <c r="N27" s="44"/>
       <c r="O27" s="87"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C28" s="86" t="s">
         <v>316</v>
       </c>
@@ -12336,7 +12074,7 @@
       <c r="N28" s="44"/>
       <c r="O28" s="87"/>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C29" s="86" t="s">
         <v>330</v>
       </c>
@@ -12358,7 +12096,7 @@
       <c r="N29" s="44"/>
       <c r="O29" s="87"/>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C30" s="86" t="s">
         <v>39</v>
       </c>
@@ -12380,7 +12118,7 @@
       <c r="N30" s="44"/>
       <c r="O30" s="87"/>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C31" s="86"/>
       <c r="D31" s="100"/>
       <c r="E31" s="44"/>
@@ -12399,7 +12137,7 @@
       <c r="N31" s="44"/>
       <c r="O31" s="87"/>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C32" s="86"/>
       <c r="D32" s="100"/>
       <c r="E32" s="44"/>
@@ -12413,7 +12151,7 @@
       <c r="N32" s="44"/>
       <c r="O32" s="87"/>
     </row>
-    <row r="33" spans="3:16">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C33" s="86"/>
       <c r="D33" s="100"/>
       <c r="E33" s="44"/>
@@ -12432,7 +12170,7 @@
       <c r="N33" s="44"/>
       <c r="O33" s="87"/>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C34" s="86"/>
       <c r="D34" s="100"/>
       <c r="E34" s="44"/>
@@ -12450,7 +12188,7 @@
       <c r="N34" s="44"/>
       <c r="O34" s="87"/>
     </row>
-    <row r="35" spans="3:16">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C35" s="86"/>
       <c r="D35" s="100"/>
       <c r="E35" s="44"/>
@@ -12464,7 +12202,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="87"/>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="44"/>
@@ -12478,7 +12216,7 @@
       <c r="N36" s="44"/>
       <c r="O36" s="87"/>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C37" s="86"/>
       <c r="D37" s="100"/>
       <c r="E37" s="44"/>
@@ -12492,7 +12230,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="87"/>
     </row>
-    <row r="38" spans="3:16" ht="15.75" thickBot="1">
+    <row r="38" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C38" s="88"/>
       <c r="D38" s="111"/>
       <c r="E38" s="89"/>
@@ -12506,37 +12244,37 @@
       <c r="N38" s="89"/>
       <c r="O38" s="90"/>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.15">
       <c r="D40" s="5"/>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C42" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="158" t="s">
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="N42" s="158"/>
-      <c r="O42" s="159" t="s">
+      <c r="N42" s="156"/>
+      <c r="O42" s="157" t="s">
         <v>326</v>
       </c>
-      <c r="P42" s="159"/>
-    </row>
-    <row r="43" spans="3:16" ht="45">
+      <c r="P42" s="157"/>
+    </row>
+    <row r="43" spans="3:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C43" s="81" t="s">
         <v>307</v>
       </c>
@@ -12580,7 +12318,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="3:16">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C44" s="100" t="s">
         <v>26</v>
       </c>
@@ -12606,7 +12344,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="3:16">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C45" s="100" t="s">
         <v>308</v>
       </c>
@@ -12632,7 +12370,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:16">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C46" s="44" t="s">
         <v>309</v>
       </c>
@@ -12678,41 +12416,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="15" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="15" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="158" t="s">
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="M5" s="158"/>
-      <c r="N5" s="159" t="s">
+      <c r="M5" s="156"/>
+      <c r="N5" s="157" t="s">
         <v>326</v>
       </c>
-      <c r="O5" s="159"/>
-    </row>
-    <row r="6" spans="2:15" s="82" customFormat="1" ht="75">
+      <c r="O5" s="157"/>
+    </row>
+    <row r="6" spans="2:15" s="82" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="81" t="s">
         <v>307</v>
       </c>
@@ -12756,7 +12494,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="100" t="s">
         <v>26</v>
       </c>
@@ -12782,7 +12520,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
         <v>308</v>
       </c>
@@ -12808,7 +12546,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
         <v>309</v>
       </c>
@@ -12852,27 +12590,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="70.5703125" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="70.625" customWidth="1"/>
+    <col min="8" max="8" width="57.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5">
+    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="121" t="s">
         <v>342</v>
       </c>
@@ -12892,7 +12630,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5">
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="122">
         <v>1</v>
       </c>
@@ -12912,7 +12650,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5">
+    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="122">
         <v>1</v>
       </c>
@@ -12932,7 +12670,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5">
+    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="122">
         <v>1</v>
       </c>
@@ -12952,7 +12690,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16.5">
+    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="122">
         <v>1</v>
       </c>
@@ -12972,7 +12710,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="126">
         <v>1</v>
       </c>
@@ -12992,7 +12730,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="126">
         <v>1</v>
       </c>
@@ -13012,7 +12750,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5">
+    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="122">
         <v>1</v>
       </c>
@@ -13032,7 +12770,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.5">
+    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="122">
         <v>1</v>
       </c>
@@ -13052,7 +12790,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5">
+    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="122">
         <v>1</v>
       </c>
@@ -13072,7 +12810,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="126">
         <v>1</v>
       </c>
@@ -13092,7 +12830,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="126">
         <v>1</v>
       </c>
@@ -13112,7 +12850,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="126">
         <v>1</v>
       </c>
@@ -13132,7 +12870,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="126">
         <v>1</v>
       </c>
@@ -13152,12 +12890,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1">
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="123" t="s">
         <v>343</v>
       </c>
@@ -13168,7 +12906,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" thickTop="1">
+    <row r="23" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C23" s="128" t="s">
         <v>356</v>
       </c>
@@ -13179,7 +12917,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="131" t="s">
         <v>358</v>
       </c>
@@ -13190,7 +12928,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="131" t="s">
         <v>366</v>
       </c>
@@ -13201,7 +12939,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="128" t="s">
         <v>368</v>
       </c>
@@ -13212,7 +12950,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="131" t="s">
         <v>370</v>
       </c>
@@ -13223,7 +12961,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="134" t="s">
         <v>372</v>
       </c>
@@ -13248,11 +12986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13260,464 +12998,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F32"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="24.5703125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="138" t="s">
-        <v>386</v>
-      </c>
-      <c r="F3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="138"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="138" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="138" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="138" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="138" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="138" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="138"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D12" s="138" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="138"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="138" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="138"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="138"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="138"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="138"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="138"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="138" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="138"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="138" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="138"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="138"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="138"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:11">
-      <c r="B3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="J5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K5" s="137" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>378</v>
-      </c>
-      <c r="J17" t="s">
-        <v>379</v>
-      </c>
-      <c r="K17" s="137" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="2:7" s="19" customFormat="1">
-      <c r="B45" s="18" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13729,14 +13129,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>265</v>
       </c>
@@ -13747,7 +13147,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>262</v>
       </c>
@@ -13772,15 +13172,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1">
+    <row r="6" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>210</v>
       </c>
@@ -13816,7 +13216,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="36">
+    <row r="8" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B8" s="139"/>
       <c r="C8" s="139"/>
       <c r="D8" s="139"/>
@@ -13838,37 +13238,37 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-    </row>
-    <row r="10" spans="2:13" ht="84.75" thickBot="1">
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+    </row>
+    <row r="10" spans="2:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-    </row>
-    <row r="11" spans="2:13" ht="108.75" thickBot="1">
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+    </row>
+    <row r="11" spans="2:13" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="77"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -13886,8 +13286,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+    <row r="17" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
         <v>93</v>
       </c>
@@ -13919,13 +13319,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="24">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
+    <row r="19" spans="2:11" ht="24" x14ac:dyDescent="0.15">
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="142"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="24" t="s">
         <v>104</v>
       </c>
@@ -13935,26 +13335,34 @@
       <c r="H19" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-    </row>
-    <row r="20" spans="2:11" ht="72.75" thickBot="1">
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="143"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+    </row>
+    <row r="20" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="138"/>
       <c r="F20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
@@ -13964,14 +13372,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13988,10 +13388,10 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:13" ht="24.75" thickBot="1">
+    <row r="3" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>210</v>
       </c>
@@ -14029,7 +13429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="36">
+    <row r="5" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139"/>
@@ -14055,35 +13455,35 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
       <c r="J6" s="78"/>
       <c r="K6" s="78"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-    </row>
-    <row r="7" spans="2:13" ht="84.75" thickBot="1">
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+    </row>
+    <row r="7" spans="2:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="77"/>
       <c r="K7" s="77"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14109,9 +13509,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
@@ -14123,7 +13523,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
@@ -14133,7 +13533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
@@ -14141,39 +13541,39 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="144" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
@@ -14185,12 +13585,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -14216,7 +13616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>123</v>
       </c>
@@ -14242,7 +13642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>165</v>
       </c>
@@ -14251,12 +13651,12 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>70</v>
       </c>
@@ -14282,7 +13682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>123</v>
       </c>
@@ -14329,13 +13729,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
@@ -14347,7 +13747,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -14357,7 +13757,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -14367,7 +13767,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -14377,12 +13777,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -14408,7 +13808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>123</v>
       </c>
@@ -14451,9 +13851,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
@@ -14466,7 +13866,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -14477,7 +13877,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -14488,7 +13888,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -14499,12 +13899,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -14533,7 +13933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>123</v>
       </c>
